--- a/pythonProject/resource/비만_우울감.xlsx
+++ b/pythonProject/resource/비만_우울감.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\infra_disease\pythonProject\resource\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\개별연구\pythonProject\resource\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4375F7FA-E4F1-4516-ADC9-F6AB35CB8F5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12EB11EC-3DCC-42E1-BBD9-727BA72783A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1993" uniqueCount="788">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2832" uniqueCount="1025">
   <si>
     <t>서울특별시</t>
   </si>
@@ -2424,12 +2424,749 @@
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>2.06</t>
+  </si>
+  <si>
+    <t>0.51</t>
+  </si>
+  <si>
+    <t>0.08</t>
+  </si>
+  <si>
+    <t>6.14</t>
+  </si>
+  <si>
+    <t>1.25</t>
+  </si>
+  <si>
+    <t>0.28</t>
+  </si>
+  <si>
+    <t>5.69</t>
+  </si>
+  <si>
+    <t>1.36</t>
+  </si>
+  <si>
+    <t>0.37</t>
+  </si>
+  <si>
+    <t>3.25</t>
+  </si>
+  <si>
+    <t>0.76</t>
+  </si>
+  <si>
+    <t>0.13</t>
+  </si>
+  <si>
+    <t>1.62</t>
+  </si>
+  <si>
+    <t>0.56</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>2.37</t>
+  </si>
+  <si>
+    <t>0.48</t>
+  </si>
+  <si>
+    <t>0.07</t>
+  </si>
+  <si>
+    <t>1.96</t>
+  </si>
+  <si>
+    <t>0.46</t>
+  </si>
+  <si>
+    <t>0.09</t>
+  </si>
+  <si>
+    <t>0.32</t>
+  </si>
+  <si>
+    <t>1.5</t>
+  </si>
+  <si>
+    <t>0.39</t>
+  </si>
+  <si>
+    <t>0.05</t>
+  </si>
+  <si>
+    <t>2.44</t>
+  </si>
+  <si>
+    <t>0.43</t>
+  </si>
+  <si>
+    <t>1.27</t>
+  </si>
+  <si>
+    <t>0.34</t>
+  </si>
+  <si>
+    <t>0.06</t>
+  </si>
+  <si>
+    <t>1.05</t>
+  </si>
+  <si>
+    <t>0.35</t>
+  </si>
+  <si>
+    <t>1.58</t>
+  </si>
+  <si>
+    <t>0.36</t>
+  </si>
+  <si>
+    <t>1.97</t>
+  </si>
+  <si>
+    <t>0.59</t>
+  </si>
+  <si>
+    <t>3.78</t>
+  </si>
+  <si>
+    <t>0.82</t>
+  </si>
+  <si>
+    <t>0.11</t>
+  </si>
+  <si>
+    <t>1.2</t>
+  </si>
+  <si>
+    <t>0.41</t>
+  </si>
+  <si>
+    <t>1.87</t>
+  </si>
+  <si>
+    <t>1.88</t>
+  </si>
+  <si>
+    <t>2.32</t>
+  </si>
+  <si>
+    <t>0.4</t>
+  </si>
+  <si>
+    <t>2.85</t>
+  </si>
+  <si>
+    <t>0.14</t>
+  </si>
+  <si>
+    <t>1.45</t>
+  </si>
+  <si>
+    <t>2.13</t>
+  </si>
+  <si>
+    <t>1.74</t>
+  </si>
+  <si>
+    <t>2.63</t>
+  </si>
+  <si>
+    <t>0.83</t>
+  </si>
+  <si>
+    <t>1.52</t>
+  </si>
+  <si>
+    <t>0.04</t>
+  </si>
+  <si>
+    <t>1.78</t>
+  </si>
+  <si>
+    <t>3.05</t>
+  </si>
+  <si>
+    <t>1.16</t>
+  </si>
+  <si>
+    <t>0.53</t>
+  </si>
+  <si>
+    <t>2.61</t>
+  </si>
+  <si>
+    <t>0.12</t>
+  </si>
+  <si>
+    <t>5.25</t>
+  </si>
+  <si>
+    <t>0.2</t>
+  </si>
+  <si>
+    <t>3.43</t>
+  </si>
+  <si>
+    <t>0.16</t>
+  </si>
+  <si>
+    <t>4.43</t>
+  </si>
+  <si>
+    <t>0.55</t>
+  </si>
+  <si>
+    <t>2.01</t>
+  </si>
+  <si>
+    <t>0.47</t>
+  </si>
+  <si>
+    <t>2.03</t>
+  </si>
+  <si>
+    <t>2.88</t>
+  </si>
+  <si>
+    <t>2.38</t>
+  </si>
+  <si>
+    <t>1.1</t>
+  </si>
+  <si>
+    <t>0.57</t>
+  </si>
+  <si>
+    <t>3.47</t>
+  </si>
+  <si>
+    <t>0.52</t>
+  </si>
+  <si>
+    <t>2.96</t>
+  </si>
+  <si>
+    <t>1.55</t>
+  </si>
+  <si>
+    <t>0.54</t>
+  </si>
+  <si>
+    <t>2.57</t>
+  </si>
+  <si>
+    <t>0.45</t>
+  </si>
+  <si>
+    <t>6.01</t>
+  </si>
+  <si>
+    <t>1.03</t>
+  </si>
+  <si>
+    <t>0.26</t>
+  </si>
+  <si>
+    <t>0.42</t>
+  </si>
+  <si>
+    <t>4.35</t>
+  </si>
+  <si>
+    <t>0.31</t>
+  </si>
+  <si>
+    <t>2.56</t>
+  </si>
+  <si>
+    <t>0.44</t>
+  </si>
+  <si>
+    <t>2.62</t>
+  </si>
+  <si>
+    <t>2.52</t>
+  </si>
+  <si>
+    <t>0.99</t>
+  </si>
+  <si>
+    <t>2.07</t>
+  </si>
+  <si>
+    <t>0.72</t>
+  </si>
+  <si>
+    <t>1.84</t>
+  </si>
+  <si>
+    <t>0.27</t>
+  </si>
+  <si>
+    <t>2.22</t>
+  </si>
+  <si>
+    <t>0.38</t>
+  </si>
+  <si>
+    <t>1.91</t>
+  </si>
+  <si>
+    <t>1.53</t>
+  </si>
+  <si>
+    <t>1.46</t>
+  </si>
+  <si>
+    <t>0.23</t>
+  </si>
+  <si>
+    <t>2.74</t>
+  </si>
+  <si>
+    <t>0.29</t>
+  </si>
+  <si>
+    <t>2.79</t>
+  </si>
+  <si>
+    <t>0.49</t>
+  </si>
+  <si>
+    <t>3.69</t>
+  </si>
+  <si>
+    <t>0.86</t>
+  </si>
+  <si>
+    <t>3.67</t>
+  </si>
+  <si>
+    <t>1.92</t>
+  </si>
+  <si>
+    <t>2.66</t>
+  </si>
+  <si>
+    <t>1.89</t>
+  </si>
+  <si>
+    <t>1.51</t>
+  </si>
+  <si>
+    <t>2.28</t>
+  </si>
+  <si>
+    <t>1.85</t>
+  </si>
+  <si>
+    <t>0.58</t>
+  </si>
+  <si>
+    <t>3.06</t>
+  </si>
+  <si>
+    <t>2.41</t>
+  </si>
+  <si>
+    <t>5.23</t>
+  </si>
+  <si>
+    <t>3.28</t>
+  </si>
+  <si>
+    <t>1.41</t>
+  </si>
+  <si>
+    <t>0.5</t>
+  </si>
+  <si>
+    <t>0.03</t>
+  </si>
+  <si>
+    <t>2.04</t>
+  </si>
+  <si>
+    <t>1.01</t>
+  </si>
+  <si>
+    <t>1.86</t>
+  </si>
+  <si>
+    <t>4.18</t>
+  </si>
+  <si>
+    <t>0.65</t>
+  </si>
+  <si>
+    <t>0.17</t>
+  </si>
+  <si>
+    <t>1.13</t>
+  </si>
+  <si>
+    <t>2.84</t>
+  </si>
+  <si>
+    <t>0.33</t>
+  </si>
+  <si>
+    <t>1.39</t>
+  </si>
+  <si>
+    <t>2.27</t>
+  </si>
+  <si>
+    <t>2.46</t>
+  </si>
+  <si>
+    <t>2.73</t>
+  </si>
+  <si>
+    <t>2.26</t>
+  </si>
+  <si>
+    <t>2.35</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1.72</t>
+  </si>
+  <si>
+    <t>2.98</t>
+  </si>
+  <si>
+    <t>4.03</t>
+  </si>
+  <si>
+    <t>1.31</t>
+  </si>
+  <si>
+    <t>3.02</t>
+  </si>
+  <si>
+    <t>2.08</t>
+  </si>
+  <si>
+    <t>1.81</t>
+  </si>
+  <si>
+    <t>0.87</t>
+  </si>
+  <si>
+    <t>0.3</t>
+  </si>
+  <si>
+    <t>0.9</t>
+  </si>
+  <si>
+    <t>0.7</t>
+  </si>
+  <si>
+    <t>1.33</t>
+  </si>
+  <si>
+    <t>1.65</t>
+  </si>
+  <si>
+    <t>1.21</t>
+  </si>
+  <si>
+    <t>1.38</t>
+  </si>
+  <si>
+    <t>1.73</t>
+  </si>
+  <si>
+    <t>2.12</t>
+  </si>
+  <si>
+    <t>1.49</t>
+  </si>
+  <si>
+    <t>3.18</t>
+  </si>
+  <si>
+    <t>2.68</t>
+  </si>
+  <si>
+    <t>2.58</t>
+  </si>
+  <si>
+    <t>4.19</t>
+  </si>
+  <si>
+    <t>0.61</t>
+  </si>
+  <si>
+    <t>4.28</t>
+  </si>
+  <si>
+    <t>0.19</t>
+  </si>
+  <si>
+    <t>4.79</t>
+  </si>
+  <si>
+    <t>2.24</t>
+  </si>
+  <si>
+    <t>2.15</t>
+  </si>
+  <si>
+    <t>0.18</t>
+  </si>
+  <si>
+    <t>3.17</t>
+  </si>
+  <si>
+    <t>0.74</t>
+  </si>
+  <si>
+    <t>2.93</t>
+  </si>
+  <si>
+    <t>2.64</t>
+  </si>
+  <si>
+    <t>0.6</t>
+  </si>
+  <si>
+    <t>2.25</t>
+  </si>
+  <si>
+    <t>0.63</t>
+  </si>
+  <si>
+    <t>3.13</t>
+  </si>
+  <si>
+    <t>1.56</t>
+  </si>
+  <si>
+    <t>2.82</t>
+  </si>
+  <si>
+    <t>2.19</t>
+  </si>
+  <si>
+    <t>1.69</t>
+  </si>
+  <si>
+    <t>2.51</t>
+  </si>
+  <si>
+    <t>0.62</t>
+  </si>
+  <si>
+    <t>2.17</t>
+  </si>
+  <si>
+    <t>0.15</t>
+  </si>
+  <si>
+    <t>1.94</t>
+  </si>
+  <si>
+    <t>1.26</t>
+  </si>
+  <si>
+    <t>1.15</t>
+  </si>
+  <si>
+    <t>2.33</t>
+  </si>
+  <si>
+    <t>2.31</t>
+  </si>
+  <si>
+    <t>2.36</t>
+  </si>
+  <si>
+    <t>2.23</t>
+  </si>
+  <si>
+    <t>1.43</t>
+  </si>
+  <si>
+    <t>0.21</t>
+  </si>
+  <si>
+    <t>1.68</t>
+  </si>
+  <si>
+    <t>0.81</t>
+  </si>
+  <si>
+    <t>0.22</t>
+  </si>
+  <si>
+    <t>0.97</t>
+  </si>
+  <si>
+    <t>0.24</t>
+  </si>
+  <si>
+    <t>2.21</t>
+  </si>
+  <si>
+    <t>3.26</t>
+  </si>
+  <si>
+    <t>5.05</t>
+  </si>
+  <si>
+    <t>5.24</t>
+  </si>
+  <si>
+    <t>4.73</t>
+  </si>
+  <si>
+    <t>0.01</t>
+  </si>
+  <si>
+    <t>0.84</t>
+  </si>
+  <si>
+    <t>1.07</t>
+  </si>
+  <si>
+    <t>2.72</t>
+  </si>
+  <si>
+    <t>0.25</t>
+  </si>
+  <si>
+    <t>1.98</t>
+  </si>
+  <si>
+    <t>2.16</t>
+  </si>
+  <si>
+    <t>1.67</t>
+  </si>
+  <si>
+    <t>3.77</t>
+  </si>
+  <si>
+    <t>3.94</t>
+  </si>
+  <si>
+    <t>1.08</t>
+  </si>
+  <si>
+    <t>3.83</t>
+  </si>
+  <si>
+    <t>4.24</t>
+  </si>
+  <si>
+    <t>3.48</t>
+  </si>
+  <si>
+    <t>2.99</t>
+  </si>
+  <si>
+    <t>2.05</t>
+  </si>
+  <si>
+    <t>3.51</t>
+  </si>
+  <si>
+    <t>3.15</t>
+  </si>
+  <si>
+    <t>0.64</t>
+  </si>
+  <si>
+    <t>1.22</t>
+  </si>
+  <si>
+    <t>2.34</t>
+  </si>
+  <si>
+    <t>3.58</t>
+  </si>
+  <si>
+    <t>1.42</t>
+  </si>
+  <si>
+    <t>3.41</t>
+  </si>
+  <si>
+    <t>3.14</t>
+  </si>
+  <si>
+    <t>5.22</t>
+  </si>
+  <si>
+    <t>4.06</t>
+  </si>
+  <si>
+    <t>2.65</t>
+  </si>
+  <si>
+    <t>2.45</t>
+  </si>
+  <si>
+    <t>1.76</t>
+  </si>
+  <si>
+    <t>4.58</t>
+  </si>
+  <si>
+    <t>4.56</t>
+  </si>
+  <si>
+    <t>인구천명당주점업 수</t>
+  </si>
+  <si>
+    <t>인구천명당담배소매업소 수</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>인구천명당패스트푸드점</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -2468,6 +3205,12 @@
     <font>
       <sz val="9"/>
       <name val="맑은 고딕"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="3"/>
       <charset val="129"/>
     </font>
   </fonts>
@@ -2542,7 +3285,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2564,35 +3307,38 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2908,10 +3654,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H295"/>
+  <dimension ref="A1:M297"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2922,9 +3668,16 @@
     <col min="4" max="4" width="17.25" customWidth="1"/>
     <col min="5" max="5" width="18.25" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.375" customWidth="1"/>
+    <col min="8" max="8" width="18.75" customWidth="1"/>
+    <col min="9" max="9" width="23.75" customWidth="1"/>
+    <col min="10" max="10" width="27.25" customWidth="1"/>
+    <col min="11" max="11" width="18.75" customWidth="1"/>
+    <col min="12" max="12" width="23.75" customWidth="1"/>
+    <col min="13" max="13" width="27.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
       <c r="B1" s="4" t="s">
         <v>413</v>
@@ -2941,11 +3694,23 @@
       <c r="F1" s="5" t="s">
         <v>688</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="16" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H1" s="5" t="s">
+        <v>1022</v>
+      </c>
+      <c r="I1" s="17" t="s">
+        <v>1024</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>1023</v>
+      </c>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2967,9 +3732,20 @@
       <c r="G2" s="6" t="s">
         <v>422</v>
       </c>
-      <c r="H2" s="6"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H2" s="6" t="s">
+        <v>788</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>789</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>790</v>
+      </c>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -2991,9 +3767,20 @@
       <c r="G3" s="6" t="s">
         <v>423</v>
       </c>
-      <c r="H3" s="6"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H3" s="6" t="s">
+        <v>791</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>792</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>793</v>
+      </c>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -3015,9 +3802,20 @@
       <c r="G4" s="6" t="s">
         <v>424</v>
       </c>
-      <c r="H4" s="6"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H4" s="6" t="s">
+        <v>794</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>795</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>796</v>
+      </c>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -3039,9 +3837,20 @@
       <c r="G5" s="6" t="s">
         <v>425</v>
       </c>
-      <c r="H5" s="6"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H5" s="6" t="s">
+        <v>797</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>798</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>799</v>
+      </c>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -3063,9 +3872,20 @@
       <c r="G6" s="6" t="s">
         <v>426</v>
       </c>
-      <c r="H6" s="6"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H6" s="6" t="s">
+        <v>800</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>801</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>802</v>
+      </c>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -3087,9 +3907,20 @@
       <c r="G7" s="6" t="s">
         <v>427</v>
       </c>
-      <c r="H7" s="6"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H7" s="6" t="s">
+        <v>803</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>804</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>805</v>
+      </c>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -3111,9 +3942,20 @@
       <c r="G8" s="6" t="s">
         <v>428</v>
       </c>
-      <c r="H8" s="6"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H8" s="6" t="s">
+        <v>806</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>807</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>808</v>
+      </c>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
@@ -3135,9 +3977,20 @@
       <c r="G9" s="6" t="s">
         <v>429</v>
       </c>
-      <c r="H9" s="6"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H9" s="6" t="s">
+        <v>806</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>809</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>805</v>
+      </c>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -3159,9 +4012,20 @@
       <c r="G10" s="6" t="s">
         <v>430</v>
       </c>
-      <c r="H10" s="6"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H10" s="6" t="s">
+        <v>810</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>812</v>
+      </c>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
@@ -3183,9 +4047,20 @@
       <c r="G11" s="6" t="s">
         <v>431</v>
       </c>
-      <c r="H11" s="6"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H11" s="6" t="s">
+        <v>813</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>814</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>808</v>
+      </c>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
@@ -3207,9 +4082,20 @@
       <c r="G12" s="6" t="s">
         <v>432</v>
       </c>
-      <c r="H12" s="6"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H12" s="6" t="s">
+        <v>815</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>816</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>817</v>
+      </c>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
@@ -3231,9 +4117,20 @@
       <c r="G13" s="6" t="s">
         <v>433</v>
       </c>
-      <c r="H13" s="6"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H13" s="6" t="s">
+        <v>818</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>819</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>812</v>
+      </c>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
@@ -3255,9 +4152,20 @@
       <c r="G14" s="6" t="s">
         <v>434</v>
       </c>
-      <c r="H14" s="6"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H14" s="6" t="s">
+        <v>820</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>821</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>817</v>
+      </c>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
@@ -3279,9 +4187,20 @@
       <c r="G15" s="6" t="s">
         <v>435</v>
       </c>
-      <c r="H15" s="6"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H15" s="6" t="s">
+        <v>822</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>823</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>805</v>
+      </c>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
@@ -3303,9 +4222,20 @@
       <c r="G16" s="6" t="s">
         <v>436</v>
       </c>
-      <c r="H16" s="6"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H16" s="6" t="s">
+        <v>824</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>825</v>
+      </c>
+      <c r="J16" s="6" t="s">
+        <v>826</v>
+      </c>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>0</v>
       </c>
@@ -3327,9 +4257,20 @@
       <c r="G17" s="6" t="s">
         <v>437</v>
       </c>
-      <c r="H17" s="6"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H17" s="6" t="s">
+        <v>827</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>828</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>812</v>
+      </c>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>0</v>
       </c>
@@ -3351,9 +4292,20 @@
       <c r="G18" s="6" t="s">
         <v>438</v>
       </c>
-      <c r="H18" s="6"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H18" s="6" t="s">
+        <v>829</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>807</v>
+      </c>
+      <c r="J18" s="6" t="s">
+        <v>812</v>
+      </c>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>0</v>
       </c>
@@ -3375,9 +4327,20 @@
       <c r="G19" s="6" t="s">
         <v>439</v>
       </c>
-      <c r="H19" s="6"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H19" s="6" t="s">
+        <v>830</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>828</v>
+      </c>
+      <c r="J19" s="6" t="s">
+        <v>790</v>
+      </c>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>0</v>
       </c>
@@ -3399,9 +4362,20 @@
       <c r="G20" s="6" t="s">
         <v>440</v>
       </c>
-      <c r="H20" s="6"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H20" s="6" t="s">
+        <v>831</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>832</v>
+      </c>
+      <c r="J20" s="6" t="s">
+        <v>805</v>
+      </c>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>0</v>
       </c>
@@ -3423,9 +4397,20 @@
       <c r="G21" s="6" t="s">
         <v>441</v>
       </c>
-      <c r="H21" s="6"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H21" s="6" t="s">
+        <v>833</v>
+      </c>
+      <c r="I21" s="6" t="s">
+        <v>801</v>
+      </c>
+      <c r="J21" s="6" t="s">
+        <v>834</v>
+      </c>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>0</v>
       </c>
@@ -3447,9 +4432,20 @@
       <c r="G22" s="6" t="s">
         <v>442</v>
       </c>
-      <c r="H22" s="6"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H22" s="6" t="s">
+        <v>835</v>
+      </c>
+      <c r="I22" s="6" t="s">
+        <v>814</v>
+      </c>
+      <c r="J22" s="6" t="s">
+        <v>805</v>
+      </c>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>0</v>
       </c>
@@ -3471,9 +4467,20 @@
       <c r="G23" s="6" t="s">
         <v>443</v>
       </c>
-      <c r="H23" s="6"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H23" s="6" t="s">
+        <v>836</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>814</v>
+      </c>
+      <c r="J23" s="6" t="s">
+        <v>790</v>
+      </c>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>0</v>
       </c>
@@ -3495,9 +4502,20 @@
       <c r="G24" s="6" t="s">
         <v>444</v>
       </c>
-      <c r="H24" s="6"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H24" s="6" t="s">
+        <v>837</v>
+      </c>
+      <c r="I24" s="6" t="s">
+        <v>801</v>
+      </c>
+      <c r="J24" s="6" t="s">
+        <v>808</v>
+      </c>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="6"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>0</v>
       </c>
@@ -3519,9 +4537,20 @@
       <c r="G25" s="6" t="s">
         <v>445</v>
       </c>
-      <c r="H25" s="6"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H25" s="6" t="s">
+        <v>838</v>
+      </c>
+      <c r="I25" s="6" t="s">
+        <v>839</v>
+      </c>
+      <c r="J25" s="6" t="s">
+        <v>826</v>
+      </c>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="6"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>0</v>
       </c>
@@ -3543,9 +4572,20 @@
       <c r="G26" s="6" t="s">
         <v>446</v>
       </c>
-      <c r="H26" s="6"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H26" s="6" t="s">
+        <v>840</v>
+      </c>
+      <c r="I26" s="6" t="s">
+        <v>804</v>
+      </c>
+      <c r="J26" s="6" t="s">
+        <v>841</v>
+      </c>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="6"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>0</v>
       </c>
@@ -3567,9 +4607,20 @@
       <c r="G27" s="6" t="s">
         <v>447</v>
       </c>
-      <c r="H27" s="6"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H27" s="6" t="s">
+        <v>842</v>
+      </c>
+      <c r="I27" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="J27" s="6" t="s">
+        <v>790</v>
+      </c>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6"/>
+      <c r="M27" s="6"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>69</v>
       </c>
@@ -3591,9 +4642,20 @@
       <c r="G28" s="6" t="s">
         <v>448</v>
       </c>
-      <c r="H28" s="6"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H28" s="6" t="s">
+        <v>843</v>
+      </c>
+      <c r="I28" s="6" t="s">
+        <v>807</v>
+      </c>
+      <c r="J28" s="6" t="s">
+        <v>826</v>
+      </c>
+      <c r="K28" s="6"/>
+      <c r="L28" s="6"/>
+      <c r="M28" s="6"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>69</v>
       </c>
@@ -3615,9 +4677,20 @@
       <c r="G29" s="6" t="s">
         <v>449</v>
       </c>
-      <c r="H29" s="6"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H29" s="6">
+        <v>1.63</v>
+      </c>
+      <c r="I29" s="6" t="s">
+        <v>844</v>
+      </c>
+      <c r="J29" s="6" t="s">
+        <v>845</v>
+      </c>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="6"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>69</v>
       </c>
@@ -3639,9 +4712,20 @@
       <c r="G30" s="6" t="s">
         <v>450</v>
       </c>
-      <c r="H30" s="6"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H30" s="6" t="s">
+        <v>846</v>
+      </c>
+      <c r="I30" s="6" t="s">
+        <v>814</v>
+      </c>
+      <c r="J30" s="6" t="s">
+        <v>847</v>
+      </c>
+      <c r="K30" s="6"/>
+      <c r="L30" s="6"/>
+      <c r="M30" s="6"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>69</v>
       </c>
@@ -3663,9 +4747,20 @@
       <c r="G31" s="6" t="s">
         <v>451</v>
       </c>
-      <c r="H31" s="6"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H31" s="6" t="s">
+        <v>848</v>
+      </c>
+      <c r="I31" s="6" t="s">
+        <v>832</v>
+      </c>
+      <c r="J31" s="6" t="s">
+        <v>849</v>
+      </c>
+      <c r="K31" s="6"/>
+      <c r="L31" s="6"/>
+      <c r="M31" s="6"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>69</v>
       </c>
@@ -3687,9 +4782,20 @@
       <c r="G32" s="6" t="s">
         <v>452</v>
       </c>
-      <c r="H32" s="6"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H32" s="6" t="s">
+        <v>850</v>
+      </c>
+      <c r="I32" s="6" t="s">
+        <v>821</v>
+      </c>
+      <c r="J32" s="6" t="s">
+        <v>851</v>
+      </c>
+      <c r="K32" s="6"/>
+      <c r="L32" s="6"/>
+      <c r="M32" s="6"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>69</v>
       </c>
@@ -3711,9 +4817,20 @@
       <c r="G33" s="6" t="s">
         <v>453</v>
       </c>
-      <c r="H33" s="6"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H33" s="6" t="s">
+        <v>852</v>
+      </c>
+      <c r="I33" s="6" t="s">
+        <v>853</v>
+      </c>
+      <c r="J33" s="6" t="s">
+        <v>851</v>
+      </c>
+      <c r="K33" s="6"/>
+      <c r="L33" s="6"/>
+      <c r="M33" s="6"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>69</v>
       </c>
@@ -3735,9 +4852,20 @@
       <c r="G34" s="6" t="s">
         <v>454</v>
       </c>
-      <c r="H34" s="6"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H34" s="6" t="s">
+        <v>776</v>
+      </c>
+      <c r="I34" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="J34" s="6" t="s">
+        <v>817</v>
+      </c>
+      <c r="K34" s="6"/>
+      <c r="L34" s="6"/>
+      <c r="M34" s="6"/>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>69</v>
       </c>
@@ -3759,9 +4887,20 @@
       <c r="G35" s="6" t="s">
         <v>455</v>
       </c>
-      <c r="H35" s="6"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H35" s="6" t="s">
+        <v>854</v>
+      </c>
+      <c r="I35" s="6" t="s">
+        <v>855</v>
+      </c>
+      <c r="J35" s="6" t="s">
+        <v>805</v>
+      </c>
+      <c r="K35" s="6"/>
+      <c r="L35" s="6"/>
+      <c r="M35" s="6"/>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>69</v>
       </c>
@@ -3783,9 +4922,20 @@
       <c r="G36" s="6" t="s">
         <v>456</v>
       </c>
-      <c r="H36" s="6"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H36" s="6" t="s">
+        <v>773</v>
+      </c>
+      <c r="I36" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="J36" s="6" t="s">
+        <v>817</v>
+      </c>
+      <c r="K36" s="6"/>
+      <c r="L36" s="6"/>
+      <c r="M36" s="6"/>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>69</v>
       </c>
@@ -3807,9 +4957,20 @@
       <c r="G37" s="6" t="s">
         <v>457</v>
       </c>
-      <c r="H37" s="6"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H37" s="6" t="s">
+        <v>856</v>
+      </c>
+      <c r="I37" s="6" t="s">
+        <v>804</v>
+      </c>
+      <c r="J37" s="6" t="s">
+        <v>805</v>
+      </c>
+      <c r="K37" s="6"/>
+      <c r="L37" s="6"/>
+      <c r="M37" s="6"/>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>69</v>
       </c>
@@ -3831,9 +4992,20 @@
       <c r="G38" s="6" t="s">
         <v>458</v>
       </c>
-      <c r="H38" s="6"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H38" s="6" t="s">
+        <v>857</v>
+      </c>
+      <c r="I38" s="6" t="s">
+        <v>814</v>
+      </c>
+      <c r="J38" s="6" t="s">
+        <v>808</v>
+      </c>
+      <c r="K38" s="6"/>
+      <c r="L38" s="6"/>
+      <c r="M38" s="6"/>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>69</v>
       </c>
@@ -3855,9 +5027,20 @@
       <c r="G39" s="6" t="s">
         <v>459</v>
       </c>
-      <c r="H39" s="6"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H39" s="6" t="s">
+        <v>858</v>
+      </c>
+      <c r="I39" s="6" t="s">
+        <v>807</v>
+      </c>
+      <c r="J39" s="6" t="s">
+        <v>799</v>
+      </c>
+      <c r="K39" s="6"/>
+      <c r="L39" s="6"/>
+      <c r="M39" s="6"/>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>69</v>
       </c>
@@ -3879,9 +5062,20 @@
       <c r="G40" s="6" t="s">
         <v>460</v>
       </c>
-      <c r="H40" s="6"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H40" s="6" t="s">
+        <v>859</v>
+      </c>
+      <c r="I40" s="6" t="s">
+        <v>860</v>
+      </c>
+      <c r="J40" s="6" t="s">
+        <v>799</v>
+      </c>
+      <c r="K40" s="6"/>
+      <c r="L40" s="6"/>
+      <c r="M40" s="6"/>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>69</v>
       </c>
@@ -3903,9 +5097,20 @@
       <c r="G41" s="6" t="s">
         <v>461</v>
       </c>
-      <c r="H41" s="6"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H41" s="6" t="s">
+        <v>861</v>
+      </c>
+      <c r="I41" s="6" t="s">
+        <v>819</v>
+      </c>
+      <c r="J41" s="6" t="s">
+        <v>826</v>
+      </c>
+      <c r="K41" s="6"/>
+      <c r="L41" s="6"/>
+      <c r="M41" s="6"/>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>69</v>
       </c>
@@ -3927,9 +5132,20 @@
       <c r="G42" s="6" t="s">
         <v>462</v>
       </c>
-      <c r="H42" s="6"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H42" s="6" t="s">
+        <v>764</v>
+      </c>
+      <c r="I42" s="6" t="s">
+        <v>862</v>
+      </c>
+      <c r="J42" s="6" t="s">
+        <v>790</v>
+      </c>
+      <c r="K42" s="6"/>
+      <c r="L42" s="6"/>
+      <c r="M42" s="6"/>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>69</v>
       </c>
@@ -3951,9 +5167,20 @@
       <c r="G43" s="6" t="s">
         <v>463</v>
       </c>
-      <c r="H43" s="6"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H43" s="6" t="s">
+        <v>863</v>
+      </c>
+      <c r="I43" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="J43" s="6" t="s">
+        <v>847</v>
+      </c>
+      <c r="K43" s="6"/>
+      <c r="L43" s="6"/>
+      <c r="M43" s="6"/>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>69</v>
       </c>
@@ -3975,9 +5202,20 @@
       <c r="G44" s="6" t="s">
         <v>464</v>
       </c>
-      <c r="H44" s="6"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H44" s="6" t="s">
+        <v>864</v>
+      </c>
+      <c r="I44" s="6" t="s">
+        <v>865</v>
+      </c>
+      <c r="J44" s="6" t="s">
+        <v>817</v>
+      </c>
+      <c r="K44" s="6"/>
+      <c r="L44" s="6"/>
+      <c r="M44" s="6"/>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>102</v>
       </c>
@@ -3999,9 +5237,20 @@
       <c r="G45" s="6" t="s">
         <v>465</v>
       </c>
-      <c r="H45" s="6"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H45" s="6" t="s">
+        <v>866</v>
+      </c>
+      <c r="I45" s="6" t="s">
+        <v>867</v>
+      </c>
+      <c r="J45" s="6" t="s">
+        <v>805</v>
+      </c>
+      <c r="K45" s="6"/>
+      <c r="L45" s="6"/>
+      <c r="M45" s="6"/>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>102</v>
       </c>
@@ -4023,9 +5272,20 @@
       <c r="G46" s="6" t="s">
         <v>466</v>
       </c>
-      <c r="H46" s="6"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H46" s="6" t="s">
+        <v>868</v>
+      </c>
+      <c r="I46" s="6" t="s">
+        <v>869</v>
+      </c>
+      <c r="J46" s="6" t="s">
+        <v>870</v>
+      </c>
+      <c r="K46" s="6"/>
+      <c r="L46" s="6"/>
+      <c r="M46" s="6"/>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>102</v>
       </c>
@@ -4047,9 +5307,20 @@
       <c r="G47" s="6" t="s">
         <v>467</v>
       </c>
-      <c r="H47" s="6"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H47" s="6" t="s">
+        <v>749</v>
+      </c>
+      <c r="I47" s="6" t="s">
+        <v>871</v>
+      </c>
+      <c r="J47" s="6" t="s">
+        <v>790</v>
+      </c>
+      <c r="K47" s="6"/>
+      <c r="L47" s="6"/>
+      <c r="M47" s="6"/>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>102</v>
       </c>
@@ -4071,9 +5342,20 @@
       <c r="G48" s="6" t="s">
         <v>468</v>
       </c>
-      <c r="H48" s="6"/>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H48" s="6" t="s">
+        <v>872</v>
+      </c>
+      <c r="I48" s="6" t="s">
+        <v>873</v>
+      </c>
+      <c r="J48" s="6" t="s">
+        <v>799</v>
+      </c>
+      <c r="K48" s="6"/>
+      <c r="L48" s="6"/>
+      <c r="M48" s="6"/>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>102</v>
       </c>
@@ -4095,9 +5377,20 @@
       <c r="G49" s="6" t="s">
         <v>469</v>
       </c>
-      <c r="H49" s="6"/>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H49" s="6" t="s">
+        <v>874</v>
+      </c>
+      <c r="I49" s="6" t="s">
+        <v>875</v>
+      </c>
+      <c r="J49" s="6" t="s">
+        <v>817</v>
+      </c>
+      <c r="K49" s="6"/>
+      <c r="L49" s="6"/>
+      <c r="M49" s="6"/>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>102</v>
       </c>
@@ -4119,9 +5412,20 @@
       <c r="G50" s="6" t="s">
         <v>470</v>
       </c>
-      <c r="H50" s="6"/>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H50" s="6" t="s">
+        <v>803</v>
+      </c>
+      <c r="I50" s="6" t="s">
+        <v>855</v>
+      </c>
+      <c r="J50" s="6" t="s">
+        <v>841</v>
+      </c>
+      <c r="K50" s="6"/>
+      <c r="L50" s="6"/>
+      <c r="M50" s="6"/>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>102</v>
       </c>
@@ -4143,9 +5447,20 @@
       <c r="G51" s="6" t="s">
         <v>471</v>
       </c>
-      <c r="H51" s="6"/>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H51" s="6" t="s">
+        <v>876</v>
+      </c>
+      <c r="I51" s="6" t="s">
+        <v>867</v>
+      </c>
+      <c r="J51" s="6" t="s">
+        <v>841</v>
+      </c>
+      <c r="K51" s="6"/>
+      <c r="L51" s="6"/>
+      <c r="M51" s="6"/>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>102</v>
       </c>
@@ -4167,9 +5482,20 @@
       <c r="G52" s="6" t="s">
         <v>472</v>
       </c>
-      <c r="H52" s="6"/>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H52" s="6" t="s">
+        <v>877</v>
+      </c>
+      <c r="I52" s="6" t="s">
+        <v>832</v>
+      </c>
+      <c r="J52" s="6" t="s">
+        <v>812</v>
+      </c>
+      <c r="K52" s="6"/>
+      <c r="L52" s="6"/>
+      <c r="M52" s="6"/>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>102</v>
       </c>
@@ -4191,9 +5517,20 @@
       <c r="G53" s="6" t="s">
         <v>473</v>
       </c>
-      <c r="H53" s="6"/>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H53" s="6" t="s">
+        <v>878</v>
+      </c>
+      <c r="I53" s="6" t="s">
+        <v>867</v>
+      </c>
+      <c r="J53" s="6" t="s">
+        <v>790</v>
+      </c>
+      <c r="K53" s="6"/>
+      <c r="L53" s="6"/>
+      <c r="M53" s="6"/>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>117</v>
       </c>
@@ -4215,9 +5552,20 @@
       <c r="G54" s="6" t="s">
         <v>474</v>
       </c>
-      <c r="H54" s="6"/>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H54" s="6" t="s">
+        <v>879</v>
+      </c>
+      <c r="I54" s="6" t="s">
+        <v>828</v>
+      </c>
+      <c r="J54" s="6" t="s">
+        <v>805</v>
+      </c>
+      <c r="K54" s="6"/>
+      <c r="L54" s="6"/>
+      <c r="M54" s="6"/>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>117</v>
       </c>
@@ -4239,9 +5587,20 @@
       <c r="G55" s="6" t="s">
         <v>475</v>
       </c>
-      <c r="H55" s="6"/>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H55" s="6" t="s">
+        <v>857</v>
+      </c>
+      <c r="I55" s="6" t="s">
+        <v>880</v>
+      </c>
+      <c r="J55" s="6" t="s">
+        <v>826</v>
+      </c>
+      <c r="K55" s="6"/>
+      <c r="L55" s="6"/>
+      <c r="M55" s="6"/>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>117</v>
       </c>
@@ -4263,9 +5622,20 @@
       <c r="G56" s="6" t="s">
         <v>476</v>
       </c>
-      <c r="H56" s="6"/>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H56" s="6" t="s">
+        <v>881</v>
+      </c>
+      <c r="I56" s="6" t="s">
+        <v>882</v>
+      </c>
+      <c r="J56" s="6" t="s">
+        <v>817</v>
+      </c>
+      <c r="K56" s="6"/>
+      <c r="L56" s="6"/>
+      <c r="M56" s="6"/>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>117</v>
       </c>
@@ -4287,9 +5657,20 @@
       <c r="G57" s="6" t="s">
         <v>477</v>
       </c>
-      <c r="H57" s="6"/>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H57" s="6" t="s">
+        <v>782</v>
+      </c>
+      <c r="I57" s="6" t="s">
+        <v>855</v>
+      </c>
+      <c r="J57" s="6" t="s">
+        <v>812</v>
+      </c>
+      <c r="K57" s="6"/>
+      <c r="L57" s="6"/>
+      <c r="M57" s="6"/>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>117</v>
       </c>
@@ -4311,9 +5692,20 @@
       <c r="G58" s="6" t="s">
         <v>478</v>
       </c>
-      <c r="H58" s="6"/>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H58" s="6" t="s">
+        <v>856</v>
+      </c>
+      <c r="I58" s="6" t="s">
+        <v>875</v>
+      </c>
+      <c r="J58" s="6" t="s">
+        <v>817</v>
+      </c>
+      <c r="K58" s="6"/>
+      <c r="L58" s="6"/>
+      <c r="M58" s="6"/>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>117</v>
       </c>
@@ -4335,9 +5727,20 @@
       <c r="G59" s="6" t="s">
         <v>479</v>
       </c>
-      <c r="H59" s="6"/>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H59" s="6" t="s">
+        <v>883</v>
+      </c>
+      <c r="I59" s="6" t="s">
+        <v>884</v>
+      </c>
+      <c r="J59" s="6" t="s">
+        <v>805</v>
+      </c>
+      <c r="K59" s="6"/>
+      <c r="L59" s="6"/>
+      <c r="M59" s="6"/>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>117</v>
       </c>
@@ -4359,9 +5762,20 @@
       <c r="G60" s="6" t="s">
         <v>480</v>
       </c>
-      <c r="H60" s="6"/>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H60" s="6" t="s">
+        <v>885</v>
+      </c>
+      <c r="I60" s="6" t="s">
+        <v>828</v>
+      </c>
+      <c r="J60" s="6" t="s">
+        <v>817</v>
+      </c>
+      <c r="K60" s="6"/>
+      <c r="L60" s="6"/>
+      <c r="M60" s="6"/>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>117</v>
       </c>
@@ -4383,9 +5797,20 @@
       <c r="G61" s="6" t="s">
         <v>481</v>
       </c>
-      <c r="H61" s="6"/>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H61" s="6" t="s">
+        <v>886</v>
+      </c>
+      <c r="I61" s="6" t="s">
+        <v>819</v>
+      </c>
+      <c r="J61" s="6" t="s">
+        <v>805</v>
+      </c>
+      <c r="K61" s="6"/>
+      <c r="L61" s="6"/>
+      <c r="M61" s="6"/>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>117</v>
       </c>
@@ -4407,9 +5832,20 @@
       <c r="G62" s="6" t="s">
         <v>482</v>
       </c>
-      <c r="H62" s="6"/>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H62" s="6" t="s">
+        <v>857</v>
+      </c>
+      <c r="I62" s="6" t="s">
+        <v>828</v>
+      </c>
+      <c r="J62" s="6" t="s">
+        <v>790</v>
+      </c>
+      <c r="K62" s="6"/>
+      <c r="L62" s="6"/>
+      <c r="M62" s="6"/>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>117</v>
       </c>
@@ -4431,9 +5867,20 @@
       <c r="G63" s="6" t="s">
         <v>483</v>
       </c>
-      <c r="H63" s="6"/>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H63" s="6" t="s">
+        <v>887</v>
+      </c>
+      <c r="I63" s="6" t="s">
+        <v>888</v>
+      </c>
+      <c r="J63" s="6" t="s">
+        <v>805</v>
+      </c>
+      <c r="K63" s="6"/>
+      <c r="L63" s="6"/>
+      <c r="M63" s="6"/>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>117</v>
       </c>
@@ -4455,9 +5902,20 @@
       <c r="G64" s="6" t="s">
         <v>484</v>
       </c>
-      <c r="H64" s="6"/>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H64" s="6" t="s">
+        <v>889</v>
+      </c>
+      <c r="I64" s="6" t="s">
+        <v>890</v>
+      </c>
+      <c r="J64" s="6" t="s">
+        <v>802</v>
+      </c>
+      <c r="K64" s="6"/>
+      <c r="L64" s="6"/>
+      <c r="M64" s="6"/>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>137</v>
       </c>
@@ -4479,9 +5937,20 @@
       <c r="G65" s="6" t="s">
         <v>485</v>
       </c>
-      <c r="H65" s="6"/>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H65" s="6" t="s">
+        <v>891</v>
+      </c>
+      <c r="I65" s="6" t="s">
+        <v>892</v>
+      </c>
+      <c r="J65" s="6" t="s">
+        <v>817</v>
+      </c>
+      <c r="K65" s="6"/>
+      <c r="L65" s="6"/>
+      <c r="M65" s="6"/>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>137</v>
       </c>
@@ -4503,9 +5972,20 @@
       <c r="G66" s="6" t="s">
         <v>486</v>
       </c>
-      <c r="H66" s="6"/>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H66" s="6" t="s">
+        <v>893</v>
+      </c>
+      <c r="I66" s="6" t="s">
+        <v>894</v>
+      </c>
+      <c r="J66" s="6" t="s">
+        <v>826</v>
+      </c>
+      <c r="K66" s="6"/>
+      <c r="L66" s="6"/>
+      <c r="M66" s="6"/>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>137</v>
       </c>
@@ -4527,9 +6007,20 @@
       <c r="G67" s="6" t="s">
         <v>487</v>
       </c>
-      <c r="H67" s="6"/>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H67" s="6" t="s">
+        <v>895</v>
+      </c>
+      <c r="I67" s="6" t="s">
+        <v>875</v>
+      </c>
+      <c r="J67" s="6" t="s">
+        <v>812</v>
+      </c>
+      <c r="K67" s="6"/>
+      <c r="L67" s="6"/>
+      <c r="M67" s="6"/>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>137</v>
       </c>
@@ -4551,9 +6042,20 @@
       <c r="G68" s="6" t="s">
         <v>488</v>
       </c>
-      <c r="H68" s="6"/>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H68" s="6" t="s">
+        <v>896</v>
+      </c>
+      <c r="I68" s="6" t="s">
+        <v>867</v>
+      </c>
+      <c r="J68" s="6" t="s">
+        <v>790</v>
+      </c>
+      <c r="K68" s="6"/>
+      <c r="L68" s="6"/>
+      <c r="M68" s="6"/>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>137</v>
       </c>
@@ -4575,9 +6077,20 @@
       <c r="G69" s="6" t="s">
         <v>489</v>
       </c>
-      <c r="H69" s="6"/>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H69" s="6" t="s">
+        <v>897</v>
+      </c>
+      <c r="I69" s="6" t="s">
+        <v>867</v>
+      </c>
+      <c r="J69" s="6" t="s">
+        <v>805</v>
+      </c>
+      <c r="K69" s="6"/>
+      <c r="L69" s="6"/>
+      <c r="M69" s="6"/>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>137</v>
       </c>
@@ -4599,9 +6112,20 @@
       <c r="G70" s="6" t="s">
         <v>490</v>
       </c>
-      <c r="H70" s="6"/>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H70" s="6" t="s">
+        <v>772</v>
+      </c>
+      <c r="I70" s="6" t="s">
+        <v>804</v>
+      </c>
+      <c r="J70" s="6" t="s">
+        <v>812</v>
+      </c>
+      <c r="K70" s="6"/>
+      <c r="L70" s="6"/>
+      <c r="M70" s="6"/>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>144</v>
       </c>
@@ -4623,9 +6147,20 @@
       <c r="G71" s="6" t="s">
         <v>491</v>
       </c>
-      <c r="H71" s="6"/>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H71" s="6" t="s">
+        <v>898</v>
+      </c>
+      <c r="I71" s="6" t="s">
+        <v>865</v>
+      </c>
+      <c r="J71" s="6" t="s">
+        <v>805</v>
+      </c>
+      <c r="K71" s="6"/>
+      <c r="L71" s="6"/>
+      <c r="M71" s="6"/>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>144</v>
       </c>
@@ -4647,9 +6182,20 @@
       <c r="G72" s="6" t="s">
         <v>492</v>
       </c>
-      <c r="H72" s="6"/>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H72" s="6" t="s">
+        <v>899</v>
+      </c>
+      <c r="I72" s="6" t="s">
+        <v>845</v>
+      </c>
+      <c r="J72" s="6" t="s">
+        <v>826</v>
+      </c>
+      <c r="K72" s="6"/>
+      <c r="L72" s="6"/>
+      <c r="M72" s="6"/>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>144</v>
       </c>
@@ -4671,9 +6217,20 @@
       <c r="G73" s="6" t="s">
         <v>493</v>
       </c>
-      <c r="H73" s="6"/>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H73" s="6" t="s">
+        <v>900</v>
+      </c>
+      <c r="I73" s="6" t="s">
+        <v>892</v>
+      </c>
+      <c r="J73" s="6" t="s">
+        <v>790</v>
+      </c>
+      <c r="K73" s="6"/>
+      <c r="L73" s="6"/>
+      <c r="M73" s="6"/>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>144</v>
       </c>
@@ -4695,9 +6252,20 @@
       <c r="G74" s="6" t="s">
         <v>494</v>
       </c>
-      <c r="H74" s="6"/>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H74" s="6" t="s">
+        <v>901</v>
+      </c>
+      <c r="I74" s="6" t="s">
+        <v>902</v>
+      </c>
+      <c r="J74" s="6" t="s">
+        <v>790</v>
+      </c>
+      <c r="K74" s="6"/>
+      <c r="L74" s="6"/>
+      <c r="M74" s="6"/>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>144</v>
       </c>
@@ -4719,9 +6287,20 @@
       <c r="G75" s="6" t="s">
         <v>495</v>
       </c>
-      <c r="H75" s="6"/>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H75" s="6" t="s">
+        <v>901</v>
+      </c>
+      <c r="I75" s="6" t="s">
+        <v>860</v>
+      </c>
+      <c r="J75" s="6" t="s">
+        <v>812</v>
+      </c>
+      <c r="K75" s="6"/>
+      <c r="L75" s="6"/>
+      <c r="M75" s="6"/>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>144</v>
       </c>
@@ -4743,9 +6322,20 @@
       <c r="G76" s="6" t="s">
         <v>496</v>
       </c>
-      <c r="H76" s="6"/>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H76" s="6" t="s">
+        <v>856</v>
+      </c>
+      <c r="I76" s="6" t="s">
+        <v>867</v>
+      </c>
+      <c r="J76" s="6" t="s">
+        <v>805</v>
+      </c>
+      <c r="K76" s="6"/>
+      <c r="L76" s="6"/>
+      <c r="M76" s="6"/>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>150</v>
       </c>
@@ -4767,9 +6357,20 @@
       <c r="G77" s="6" t="s">
         <v>497</v>
       </c>
-      <c r="H77" s="6"/>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H77" s="6" t="s">
+        <v>903</v>
+      </c>
+      <c r="I77" s="6" t="s">
+        <v>892</v>
+      </c>
+      <c r="J77" s="6" t="s">
+        <v>805</v>
+      </c>
+      <c r="K77" s="6"/>
+      <c r="L77" s="6"/>
+      <c r="M77" s="6"/>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>150</v>
       </c>
@@ -4791,9 +6392,20 @@
       <c r="G78" s="6" t="s">
         <v>498</v>
       </c>
-      <c r="H78" s="6"/>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H78" s="6" t="s">
+        <v>904</v>
+      </c>
+      <c r="I78" s="6" t="s">
+        <v>867</v>
+      </c>
+      <c r="J78" s="6" t="s">
+        <v>805</v>
+      </c>
+      <c r="K78" s="6"/>
+      <c r="L78" s="6"/>
+      <c r="M78" s="6"/>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>150</v>
       </c>
@@ -4815,9 +6427,20 @@
       <c r="G79" s="6" t="s">
         <v>499</v>
       </c>
-      <c r="H79" s="6"/>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H79" s="6" t="s">
+        <v>905</v>
+      </c>
+      <c r="I79" s="6" t="s">
+        <v>902</v>
+      </c>
+      <c r="J79" s="6" t="s">
+        <v>790</v>
+      </c>
+      <c r="K79" s="6"/>
+      <c r="L79" s="6"/>
+      <c r="M79" s="6"/>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>150</v>
       </c>
@@ -4839,9 +6462,20 @@
       <c r="G80" s="6" t="s">
         <v>500</v>
       </c>
-      <c r="H80" s="6"/>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H80" s="6" t="s">
+        <v>906</v>
+      </c>
+      <c r="I80" s="6" t="s">
+        <v>804</v>
+      </c>
+      <c r="J80" s="6" t="s">
+        <v>817</v>
+      </c>
+      <c r="K80" s="6"/>
+      <c r="L80" s="6"/>
+      <c r="M80" s="6"/>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>150</v>
       </c>
@@ -4863,9 +6497,20 @@
       <c r="G81" s="6" t="s">
         <v>501</v>
       </c>
-      <c r="H81" s="6"/>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H81" s="6" t="s">
+        <v>907</v>
+      </c>
+      <c r="I81" s="6" t="s">
+        <v>908</v>
+      </c>
+      <c r="J81" s="6" t="s">
+        <v>909</v>
+      </c>
+      <c r="K81" s="6"/>
+      <c r="L81" s="6"/>
+      <c r="M81" s="6"/>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>150</v>
       </c>
@@ -4887,9 +6532,20 @@
       <c r="G82" s="6" t="s">
         <v>502</v>
       </c>
-      <c r="H82" s="6"/>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H82" s="6" t="s">
+        <v>910</v>
+      </c>
+      <c r="I82" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="J82" s="6" t="s">
+        <v>790</v>
+      </c>
+      <c r="K82" s="6"/>
+      <c r="L82" s="6"/>
+      <c r="M82" s="6"/>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>153</v>
       </c>
@@ -4911,9 +6567,20 @@
       <c r="G83" s="6" t="s">
         <v>503</v>
       </c>
-      <c r="H83" s="6"/>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H83" s="6" t="s">
+        <v>911</v>
+      </c>
+      <c r="I83" s="6" t="s">
+        <v>807</v>
+      </c>
+      <c r="J83" s="6" t="s">
+        <v>817</v>
+      </c>
+      <c r="K83" s="6"/>
+      <c r="L83" s="6"/>
+      <c r="M83" s="6"/>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>153</v>
       </c>
@@ -4936,8 +6603,13 @@
         <v>503</v>
       </c>
       <c r="H84" s="6"/>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I84" s="6"/>
+      <c r="J84" s="6"/>
+      <c r="K84" s="6"/>
+      <c r="L84" s="6"/>
+      <c r="M84" s="6"/>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>156</v>
       </c>
@@ -4959,9 +6631,20 @@
       <c r="G85" s="6" t="s">
         <v>504</v>
       </c>
-      <c r="H85" s="6"/>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H85" s="6" t="s">
+        <v>837</v>
+      </c>
+      <c r="I85" s="6" t="s">
+        <v>871</v>
+      </c>
+      <c r="J85" s="6" t="s">
+        <v>805</v>
+      </c>
+      <c r="K85" s="6"/>
+      <c r="L85" s="6"/>
+      <c r="M85" s="6"/>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>156</v>
       </c>
@@ -4983,9 +6666,20 @@
       <c r="G86" s="6" t="s">
         <v>505</v>
       </c>
-      <c r="H86" s="6"/>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H86" s="6" t="s">
+        <v>912</v>
+      </c>
+      <c r="I86" s="6" t="s">
+        <v>855</v>
+      </c>
+      <c r="J86" s="6" t="s">
+        <v>790</v>
+      </c>
+      <c r="K86" s="6"/>
+      <c r="L86" s="6"/>
+      <c r="M86" s="6"/>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>156</v>
       </c>
@@ -5007,9 +6701,20 @@
       <c r="G87" s="6" t="s">
         <v>506</v>
       </c>
-      <c r="H87" s="6"/>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H87" s="6" t="s">
+        <v>901</v>
+      </c>
+      <c r="I87" s="6" t="s">
+        <v>814</v>
+      </c>
+      <c r="J87" s="6" t="s">
+        <v>817</v>
+      </c>
+      <c r="K87" s="6"/>
+      <c r="L87" s="6"/>
+      <c r="M87" s="6"/>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>156</v>
       </c>
@@ -5031,9 +6736,20 @@
       <c r="G88" s="6" t="s">
         <v>507</v>
       </c>
-      <c r="H88" s="6"/>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H88" s="6" t="s">
+        <v>899</v>
+      </c>
+      <c r="I88" s="6" t="s">
+        <v>796</v>
+      </c>
+      <c r="J88" s="6" t="s">
+        <v>805</v>
+      </c>
+      <c r="K88" s="6"/>
+      <c r="L88" s="6"/>
+      <c r="M88" s="6"/>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>156</v>
       </c>
@@ -5055,9 +6771,20 @@
       <c r="G89" s="6" t="s">
         <v>508</v>
       </c>
-      <c r="H89" s="6"/>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H89" s="6" t="s">
+        <v>913</v>
+      </c>
+      <c r="I89" s="6" t="s">
+        <v>914</v>
+      </c>
+      <c r="J89" s="6" t="s">
+        <v>915</v>
+      </c>
+      <c r="K89" s="6"/>
+      <c r="L89" s="6"/>
+      <c r="M89" s="6"/>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>156</v>
       </c>
@@ -5079,9 +6806,20 @@
       <c r="G90" s="6" t="s">
         <v>509</v>
       </c>
-      <c r="H90" s="6"/>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H90" s="6" t="s">
+        <v>916</v>
+      </c>
+      <c r="I90" s="6" t="s">
+        <v>789</v>
+      </c>
+      <c r="J90" s="6" t="s">
+        <v>841</v>
+      </c>
+      <c r="K90" s="6"/>
+      <c r="L90" s="6"/>
+      <c r="M90" s="6"/>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
         <v>156</v>
       </c>
@@ -5103,9 +6841,20 @@
       <c r="G91" s="6" t="s">
         <v>510</v>
       </c>
-      <c r="H91" s="6"/>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H91" s="6" t="s">
+        <v>912</v>
+      </c>
+      <c r="I91" s="6" t="s">
+        <v>867</v>
+      </c>
+      <c r="J91" s="6" t="s">
+        <v>805</v>
+      </c>
+      <c r="K91" s="6"/>
+      <c r="L91" s="6"/>
+      <c r="M91" s="6"/>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>156</v>
       </c>
@@ -5127,9 +6876,20 @@
       <c r="G92" s="6" t="s">
         <v>511</v>
       </c>
-      <c r="H92" s="6"/>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H92" s="6" t="s">
+        <v>896</v>
+      </c>
+      <c r="I92" s="6" t="s">
+        <v>908</v>
+      </c>
+      <c r="J92" s="6" t="s">
+        <v>802</v>
+      </c>
+      <c r="K92" s="6"/>
+      <c r="L92" s="6"/>
+      <c r="M92" s="6"/>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>156</v>
       </c>
@@ -5151,9 +6911,20 @@
       <c r="G93" s="6" t="s">
         <v>512</v>
       </c>
-      <c r="H93" s="6"/>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H93" s="6" t="s">
+        <v>917</v>
+      </c>
+      <c r="I93" s="6" t="s">
+        <v>918</v>
+      </c>
+      <c r="J93" s="6" t="s">
+        <v>790</v>
+      </c>
+      <c r="K93" s="6"/>
+      <c r="L93" s="6"/>
+      <c r="M93" s="6"/>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>156</v>
       </c>
@@ -5175,9 +6946,20 @@
       <c r="G94" s="6" t="s">
         <v>513</v>
       </c>
-      <c r="H94" s="6"/>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H94" s="6" t="s">
+        <v>919</v>
+      </c>
+      <c r="I94" s="6" t="s">
+        <v>892</v>
+      </c>
+      <c r="J94" s="6" t="s">
+        <v>817</v>
+      </c>
+      <c r="K94" s="6"/>
+      <c r="L94" s="6"/>
+      <c r="M94" s="6"/>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
         <v>156</v>
       </c>
@@ -5199,9 +6981,20 @@
       <c r="G95" s="6" t="s">
         <v>514</v>
       </c>
-      <c r="H95" s="6"/>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H95" s="6" t="s">
+        <v>920</v>
+      </c>
+      <c r="I95" s="6" t="s">
+        <v>875</v>
+      </c>
+      <c r="J95" s="6" t="s">
+        <v>817</v>
+      </c>
+      <c r="K95" s="6"/>
+      <c r="L95" s="6"/>
+      <c r="M95" s="6"/>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
         <v>156</v>
       </c>
@@ -5223,9 +7016,20 @@
       <c r="G96" s="6" t="s">
         <v>515</v>
       </c>
-      <c r="H96" s="6"/>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H96" s="6" t="s">
+        <v>921</v>
+      </c>
+      <c r="I96" s="6" t="s">
+        <v>828</v>
+      </c>
+      <c r="J96" s="6" t="s">
+        <v>812</v>
+      </c>
+      <c r="K96" s="6"/>
+      <c r="L96" s="6"/>
+      <c r="M96" s="6"/>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
         <v>156</v>
       </c>
@@ -5247,9 +7051,20 @@
       <c r="G97" s="6" t="s">
         <v>516</v>
       </c>
-      <c r="H97" s="6"/>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H97" s="6" t="s">
+        <v>922</v>
+      </c>
+      <c r="I97" s="6" t="s">
+        <v>807</v>
+      </c>
+      <c r="J97" s="6" t="s">
+        <v>841</v>
+      </c>
+      <c r="K97" s="6"/>
+      <c r="L97" s="6"/>
+      <c r="M97" s="6"/>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
         <v>156</v>
       </c>
@@ -5271,9 +7086,20 @@
       <c r="G98" s="6" t="s">
         <v>517</v>
       </c>
-      <c r="H98" s="6"/>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H98" s="6" t="s">
+        <v>923</v>
+      </c>
+      <c r="I98" s="6" t="s">
+        <v>796</v>
+      </c>
+      <c r="J98" s="6" t="s">
+        <v>817</v>
+      </c>
+      <c r="K98" s="6"/>
+      <c r="L98" s="6"/>
+      <c r="M98" s="6"/>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
         <v>156</v>
       </c>
@@ -5295,9 +7121,20 @@
       <c r="G99" s="6" t="s">
         <v>518</v>
       </c>
-      <c r="H99" s="6"/>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H99" s="6" t="s">
+        <v>924</v>
+      </c>
+      <c r="I99" s="6" t="s">
+        <v>867</v>
+      </c>
+      <c r="J99" s="6" t="s">
+        <v>805</v>
+      </c>
+      <c r="K99" s="6"/>
+      <c r="L99" s="6"/>
+      <c r="M99" s="6"/>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>156</v>
       </c>
@@ -5317,9 +7154,20 @@
         <v>704</v>
       </c>
       <c r="G100" s="6"/>
-      <c r="H100" s="6"/>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H100" s="6" t="s">
+        <v>925</v>
+      </c>
+      <c r="I100" s="6" t="s">
+        <v>925</v>
+      </c>
+      <c r="J100" s="6" t="s">
+        <v>925</v>
+      </c>
+      <c r="K100" s="6"/>
+      <c r="L100" s="6"/>
+      <c r="M100" s="6"/>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>156</v>
       </c>
@@ -5339,9 +7187,20 @@
         <v>697</v>
       </c>
       <c r="G101" s="6"/>
-      <c r="H101" s="6"/>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H101" s="6" t="s">
+        <v>925</v>
+      </c>
+      <c r="I101" s="6" t="s">
+        <v>925</v>
+      </c>
+      <c r="J101" s="6" t="s">
+        <v>925</v>
+      </c>
+      <c r="K101" s="6"/>
+      <c r="L101" s="6"/>
+      <c r="M101" s="6"/>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>156</v>
       </c>
@@ -5361,9 +7220,20 @@
         <v>693</v>
       </c>
       <c r="G102" s="6"/>
-      <c r="H102" s="6"/>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H102" s="6" t="s">
+        <v>925</v>
+      </c>
+      <c r="I102" s="6" t="s">
+        <v>925</v>
+      </c>
+      <c r="J102" s="6" t="s">
+        <v>925</v>
+      </c>
+      <c r="K102" s="6"/>
+      <c r="L102" s="6"/>
+      <c r="M102" s="6"/>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>156</v>
       </c>
@@ -5385,9 +7255,20 @@
       <c r="G103" s="6" t="s">
         <v>519</v>
       </c>
-      <c r="H103" s="6"/>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H103" s="6" t="s">
+        <v>926</v>
+      </c>
+      <c r="I103" s="6" t="s">
+        <v>821</v>
+      </c>
+      <c r="J103" s="6" t="s">
+        <v>841</v>
+      </c>
+      <c r="K103" s="6"/>
+      <c r="L103" s="6"/>
+      <c r="M103" s="6"/>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>156</v>
       </c>
@@ -5409,9 +7290,20 @@
       <c r="G104" s="6" t="s">
         <v>520</v>
       </c>
-      <c r="H104" s="6"/>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H104" s="6" t="s">
+        <v>927</v>
+      </c>
+      <c r="I104" s="6" t="s">
+        <v>789</v>
+      </c>
+      <c r="J104" s="6" t="s">
+        <v>826</v>
+      </c>
+      <c r="K104" s="6"/>
+      <c r="L104" s="6"/>
+      <c r="M104" s="6"/>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
         <v>156</v>
       </c>
@@ -5431,9 +7323,20 @@
         <v>748</v>
       </c>
       <c r="G105" s="6"/>
-      <c r="H105" s="6"/>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H105" s="6" t="s">
+        <v>925</v>
+      </c>
+      <c r="I105" s="6" t="s">
+        <v>925</v>
+      </c>
+      <c r="J105" s="6" t="s">
+        <v>925</v>
+      </c>
+      <c r="K105" s="6"/>
+      <c r="L105" s="6"/>
+      <c r="M105" s="6"/>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
         <v>156</v>
       </c>
@@ -5453,9 +7356,20 @@
         <v>712</v>
       </c>
       <c r="G106" s="6"/>
-      <c r="H106" s="6"/>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H106" s="6" t="s">
+        <v>925</v>
+      </c>
+      <c r="I106" s="6" t="s">
+        <v>925</v>
+      </c>
+      <c r="J106" s="6" t="s">
+        <v>925</v>
+      </c>
+      <c r="K106" s="6"/>
+      <c r="L106" s="6"/>
+      <c r="M106" s="6"/>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
         <v>156</v>
       </c>
@@ -5477,9 +7391,20 @@
       <c r="G107" s="6" t="s">
         <v>521</v>
       </c>
-      <c r="H107" s="6"/>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H107" s="6" t="s">
+        <v>928</v>
+      </c>
+      <c r="I107" s="6" t="s">
+        <v>804</v>
+      </c>
+      <c r="J107" s="6" t="s">
+        <v>915</v>
+      </c>
+      <c r="K107" s="6"/>
+      <c r="L107" s="6"/>
+      <c r="M107" s="6"/>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
         <v>156</v>
       </c>
@@ -5501,9 +7426,20 @@
       <c r="G108" s="6" t="s">
         <v>522</v>
       </c>
-      <c r="H108" s="6"/>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H108" s="6" t="s">
+        <v>877</v>
+      </c>
+      <c r="I108" s="6" t="s">
+        <v>814</v>
+      </c>
+      <c r="J108" s="6" t="s">
+        <v>805</v>
+      </c>
+      <c r="K108" s="6"/>
+      <c r="L108" s="6"/>
+      <c r="M108" s="6"/>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
         <v>156</v>
       </c>
@@ -5525,9 +7461,20 @@
       <c r="G109" s="6" t="s">
         <v>523</v>
       </c>
-      <c r="H109" s="6"/>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H109" s="6" t="s">
+        <v>837</v>
+      </c>
+      <c r="I109" s="6" t="s">
+        <v>884</v>
+      </c>
+      <c r="J109" s="6" t="s">
+        <v>817</v>
+      </c>
+      <c r="K109" s="6"/>
+      <c r="L109" s="6"/>
+      <c r="M109" s="6"/>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
         <v>156</v>
       </c>
@@ -5549,9 +7496,20 @@
       <c r="G110" s="6" t="s">
         <v>524</v>
       </c>
-      <c r="H110" s="6"/>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H110" s="6" t="s">
+        <v>850</v>
+      </c>
+      <c r="I110" s="6" t="s">
+        <v>892</v>
+      </c>
+      <c r="J110" s="6" t="s">
+        <v>790</v>
+      </c>
+      <c r="K110" s="6"/>
+      <c r="L110" s="6"/>
+      <c r="M110" s="6"/>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
         <v>156</v>
       </c>
@@ -5573,9 +7531,20 @@
       <c r="G111" s="6" t="s">
         <v>525</v>
       </c>
-      <c r="H111" s="6"/>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H111" s="6" t="s">
+        <v>929</v>
+      </c>
+      <c r="I111" s="6" t="s">
+        <v>814</v>
+      </c>
+      <c r="J111" s="6" t="s">
+        <v>812</v>
+      </c>
+      <c r="K111" s="6"/>
+      <c r="L111" s="6"/>
+      <c r="M111" s="6"/>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
         <v>156</v>
       </c>
@@ -5597,9 +7566,20 @@
       <c r="G112" s="6" t="s">
         <v>526</v>
       </c>
-      <c r="H112" s="6"/>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H112" s="6" t="s">
+        <v>925</v>
+      </c>
+      <c r="I112" s="6" t="s">
+        <v>925</v>
+      </c>
+      <c r="J112" s="6" t="s">
+        <v>925</v>
+      </c>
+      <c r="K112" s="6"/>
+      <c r="L112" s="6"/>
+      <c r="M112" s="6"/>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
         <v>156</v>
       </c>
@@ -5621,9 +7601,20 @@
       <c r="G113" s="6" t="s">
         <v>527</v>
       </c>
-      <c r="H113" s="6"/>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H113" s="6" t="s">
+        <v>925</v>
+      </c>
+      <c r="I113" s="6" t="s">
+        <v>925</v>
+      </c>
+      <c r="J113" s="6" t="s">
+        <v>925</v>
+      </c>
+      <c r="K113" s="6"/>
+      <c r="L113" s="6"/>
+      <c r="M113" s="6"/>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
         <v>156</v>
       </c>
@@ -5645,9 +7636,20 @@
       <c r="G114" s="6" t="s">
         <v>528</v>
       </c>
-      <c r="H114" s="6"/>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H114" s="6" t="s">
+        <v>925</v>
+      </c>
+      <c r="I114" s="6" t="s">
+        <v>925</v>
+      </c>
+      <c r="J114" s="6" t="s">
+        <v>925</v>
+      </c>
+      <c r="K114" s="6"/>
+      <c r="L114" s="6"/>
+      <c r="M114" s="6"/>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
         <v>156</v>
       </c>
@@ -5669,9 +7671,20 @@
       <c r="G115" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="H115" s="6"/>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H115" s="6" t="s">
+        <v>875</v>
+      </c>
+      <c r="I115" s="6" t="s">
+        <v>793</v>
+      </c>
+      <c r="J115" s="6" t="s">
+        <v>812</v>
+      </c>
+      <c r="K115" s="6"/>
+      <c r="L115" s="6"/>
+      <c r="M115" s="6"/>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
         <v>156</v>
       </c>
@@ -5693,9 +7706,20 @@
       <c r="G116" s="6" t="s">
         <v>530</v>
       </c>
-      <c r="H116" s="6"/>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H116" s="6" t="s">
+        <v>930</v>
+      </c>
+      <c r="I116" s="6" t="s">
+        <v>867</v>
+      </c>
+      <c r="J116" s="6" t="s">
+        <v>790</v>
+      </c>
+      <c r="K116" s="6"/>
+      <c r="L116" s="6"/>
+      <c r="M116" s="6"/>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
         <v>156</v>
       </c>
@@ -5717,9 +7741,20 @@
       <c r="G117" s="6" t="s">
         <v>531</v>
       </c>
-      <c r="H117" s="6"/>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H117" s="6" t="s">
+        <v>869</v>
+      </c>
+      <c r="I117" s="6" t="s">
+        <v>828</v>
+      </c>
+      <c r="J117" s="6" t="s">
+        <v>817</v>
+      </c>
+      <c r="K117" s="6"/>
+      <c r="L117" s="6"/>
+      <c r="M117" s="6"/>
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
         <v>156</v>
       </c>
@@ -5739,9 +7774,20 @@
         <v>690</v>
       </c>
       <c r="G118" s="6"/>
-      <c r="H118" s="6"/>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H118" s="6" t="s">
+        <v>925</v>
+      </c>
+      <c r="I118" s="6" t="s">
+        <v>925</v>
+      </c>
+      <c r="J118" s="6" t="s">
+        <v>925</v>
+      </c>
+      <c r="K118" s="6"/>
+      <c r="L118" s="6"/>
+      <c r="M118" s="6"/>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
         <v>156</v>
       </c>
@@ -5761,9 +7807,20 @@
         <v>712</v>
       </c>
       <c r="G119" s="6"/>
-      <c r="H119" s="6"/>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H119" s="6" t="s">
+        <v>925</v>
+      </c>
+      <c r="I119" s="6" t="s">
+        <v>925</v>
+      </c>
+      <c r="J119" s="6" t="s">
+        <v>925</v>
+      </c>
+      <c r="K119" s="6"/>
+      <c r="L119" s="6"/>
+      <c r="M119" s="6"/>
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
         <v>156</v>
       </c>
@@ -5785,9 +7842,20 @@
       <c r="G120" s="6" t="s">
         <v>532</v>
       </c>
-      <c r="H120" s="6"/>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H120" s="6" t="s">
+        <v>830</v>
+      </c>
+      <c r="I120" s="6" t="s">
+        <v>875</v>
+      </c>
+      <c r="J120" s="6" t="s">
+        <v>841</v>
+      </c>
+      <c r="K120" s="6"/>
+      <c r="L120" s="6"/>
+      <c r="M120" s="6"/>
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
         <v>156</v>
       </c>
@@ -5809,9 +7877,20 @@
       <c r="G121" s="6" t="s">
         <v>533</v>
       </c>
-      <c r="H121" s="6"/>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H121" s="6" t="s">
+        <v>931</v>
+      </c>
+      <c r="I121" s="6" t="s">
+        <v>807</v>
+      </c>
+      <c r="J121" s="6" t="s">
+        <v>805</v>
+      </c>
+      <c r="K121" s="6"/>
+      <c r="L121" s="6"/>
+      <c r="M121" s="6"/>
+    </row>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
         <v>156</v>
       </c>
@@ -5833,9 +7912,20 @@
       <c r="G122" s="6" t="s">
         <v>534</v>
       </c>
-      <c r="H122" s="6"/>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H122" s="6" t="s">
+        <v>932</v>
+      </c>
+      <c r="I122" s="6" t="s">
+        <v>793</v>
+      </c>
+      <c r="J122" s="6" t="s">
+        <v>817</v>
+      </c>
+      <c r="K122" s="6"/>
+      <c r="L122" s="6"/>
+      <c r="M122" s="6"/>
+    </row>
+    <row r="123" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
         <v>156</v>
       </c>
@@ -5857,9 +7947,20 @@
       <c r="G123" s="6" t="s">
         <v>535</v>
       </c>
-      <c r="H123" s="6"/>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H123" s="6" t="s">
+        <v>933</v>
+      </c>
+      <c r="I123" s="6" t="s">
+        <v>934</v>
+      </c>
+      <c r="J123" s="6" t="s">
+        <v>812</v>
+      </c>
+      <c r="K123" s="6"/>
+      <c r="L123" s="6"/>
+      <c r="M123" s="6"/>
+    </row>
+    <row r="124" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
         <v>156</v>
       </c>
@@ -5881,9 +7982,20 @@
       <c r="G124" s="6" t="s">
         <v>536</v>
       </c>
-      <c r="H124" s="6"/>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H124" s="6" t="s">
+        <v>935</v>
+      </c>
+      <c r="I124" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="J124" s="6" t="s">
+        <v>812</v>
+      </c>
+      <c r="K124" s="6"/>
+      <c r="L124" s="6"/>
+      <c r="M124" s="6"/>
+    </row>
+    <row r="125" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
         <v>156</v>
       </c>
@@ -5905,9 +8017,20 @@
       <c r="G125" s="6" t="s">
         <v>537</v>
       </c>
-      <c r="H125" s="6"/>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H125" s="6" t="s">
+        <v>911</v>
+      </c>
+      <c r="I125" s="6" t="s">
+        <v>884</v>
+      </c>
+      <c r="J125" s="6" t="s">
+        <v>812</v>
+      </c>
+      <c r="K125" s="6"/>
+      <c r="L125" s="6"/>
+      <c r="M125" s="6"/>
+    </row>
+    <row r="126" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
         <v>156</v>
       </c>
@@ -5929,9 +8052,20 @@
       <c r="G126" s="6" t="s">
         <v>538</v>
       </c>
-      <c r="H126" s="6"/>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H126" s="6" t="s">
+        <v>885</v>
+      </c>
+      <c r="I126" s="6" t="s">
+        <v>875</v>
+      </c>
+      <c r="J126" s="6" t="s">
+        <v>805</v>
+      </c>
+      <c r="K126" s="6"/>
+      <c r="L126" s="6"/>
+      <c r="M126" s="6"/>
+    </row>
+    <row r="127" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
         <v>156</v>
       </c>
@@ -5953,9 +8087,20 @@
       <c r="G127" s="6" t="s">
         <v>539</v>
       </c>
-      <c r="H127" s="6"/>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H127" s="6" t="s">
+        <v>798</v>
+      </c>
+      <c r="I127" s="6" t="s">
+        <v>821</v>
+      </c>
+      <c r="J127" s="6" t="s">
+        <v>909</v>
+      </c>
+      <c r="K127" s="6"/>
+      <c r="L127" s="6"/>
+      <c r="M127" s="6"/>
+    </row>
+    <row r="128" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
         <v>156</v>
       </c>
@@ -5977,9 +8122,20 @@
       <c r="G128" s="6" t="s">
         <v>540</v>
       </c>
-      <c r="H128" s="6"/>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H128" s="6" t="s">
+        <v>936</v>
+      </c>
+      <c r="I128" s="6" t="s">
+        <v>821</v>
+      </c>
+      <c r="J128" s="6" t="s">
+        <v>812</v>
+      </c>
+      <c r="K128" s="6"/>
+      <c r="L128" s="6"/>
+      <c r="M128" s="6"/>
+    </row>
+    <row r="129" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
         <v>156</v>
       </c>
@@ -6001,9 +8157,20 @@
       <c r="G129" s="6" t="s">
         <v>541</v>
       </c>
-      <c r="H129" s="6"/>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H129" s="6" t="s">
+        <v>937</v>
+      </c>
+      <c r="I129" s="6" t="s">
+        <v>807</v>
+      </c>
+      <c r="J129" s="6" t="s">
+        <v>790</v>
+      </c>
+      <c r="K129" s="6"/>
+      <c r="L129" s="6"/>
+      <c r="M129" s="6"/>
+    </row>
+    <row r="130" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
         <v>156</v>
       </c>
@@ -6025,9 +8192,20 @@
       <c r="G130" s="6" t="s">
         <v>542</v>
       </c>
-      <c r="H130" s="6"/>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H130" s="6" t="s">
+        <v>769</v>
+      </c>
+      <c r="I130" s="6" t="s">
+        <v>892</v>
+      </c>
+      <c r="J130" s="6" t="s">
+        <v>805</v>
+      </c>
+      <c r="K130" s="6"/>
+      <c r="L130" s="6"/>
+      <c r="M130" s="6"/>
+    </row>
+    <row r="131" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
         <v>156</v>
       </c>
@@ -6049,9 +8227,20 @@
       <c r="G131" s="6" t="s">
         <v>543</v>
       </c>
-      <c r="H131" s="6"/>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H131" s="6" t="s">
+        <v>938</v>
+      </c>
+      <c r="I131" s="6" t="s">
+        <v>871</v>
+      </c>
+      <c r="J131" s="6" t="s">
+        <v>812</v>
+      </c>
+      <c r="K131" s="6"/>
+      <c r="L131" s="6"/>
+      <c r="M131" s="6"/>
+    </row>
+    <row r="132" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
         <v>156</v>
       </c>
@@ -6073,9 +8262,20 @@
       <c r="G132" s="6" t="s">
         <v>544</v>
       </c>
-      <c r="H132" s="6"/>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H132" s="6" t="s">
+        <v>827</v>
+      </c>
+      <c r="I132" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="J132" s="6" t="s">
+        <v>805</v>
+      </c>
+      <c r="K132" s="6"/>
+      <c r="L132" s="6"/>
+      <c r="M132" s="6"/>
+    </row>
+    <row r="133" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
         <v>156</v>
       </c>
@@ -6097,9 +8297,20 @@
       <c r="G133" s="6" t="s">
         <v>545</v>
       </c>
-      <c r="H133" s="6"/>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H133" s="6" t="s">
+        <v>939</v>
+      </c>
+      <c r="I133" s="6" t="s">
+        <v>828</v>
+      </c>
+      <c r="J133" s="6" t="s">
+        <v>817</v>
+      </c>
+      <c r="K133" s="6"/>
+      <c r="L133" s="6"/>
+      <c r="M133" s="6"/>
+    </row>
+    <row r="134" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
         <v>156</v>
       </c>
@@ -6120,8 +8331,13 @@
       </c>
       <c r="G134" s="6"/>
       <c r="H134" s="6"/>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I134" s="6"/>
+      <c r="J134" s="6"/>
+      <c r="K134" s="6"/>
+      <c r="L134" s="6"/>
+      <c r="M134" s="6"/>
+    </row>
+    <row r="135" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
         <v>156</v>
       </c>
@@ -6142,8 +8358,13 @@
       </c>
       <c r="G135" s="6"/>
       <c r="H135" s="6"/>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I135" s="6"/>
+      <c r="J135" s="6"/>
+      <c r="K135" s="6"/>
+      <c r="L135" s="6"/>
+      <c r="M135" s="6"/>
+    </row>
+    <row r="136" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
         <v>156</v>
       </c>
@@ -6164,8 +8385,13 @@
       </c>
       <c r="G136" s="6"/>
       <c r="H136" s="6"/>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I136" s="6"/>
+      <c r="J136" s="6"/>
+      <c r="K136" s="6"/>
+      <c r="L136" s="6"/>
+      <c r="M136" s="6"/>
+    </row>
+    <row r="137" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
         <v>156</v>
       </c>
@@ -6187,9 +8413,20 @@
       <c r="G137" s="6" t="s">
         <v>546</v>
       </c>
-      <c r="H137" s="6"/>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H137" s="6" t="s">
+        <v>869</v>
+      </c>
+      <c r="I137" s="6" t="s">
+        <v>809</v>
+      </c>
+      <c r="J137" s="6" t="s">
+        <v>812</v>
+      </c>
+      <c r="K137" s="6"/>
+      <c r="L137" s="6"/>
+      <c r="M137" s="6"/>
+    </row>
+    <row r="138" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
         <v>156</v>
       </c>
@@ -6211,9 +8448,20 @@
       <c r="G138" s="6" t="s">
         <v>547</v>
       </c>
-      <c r="H138" s="6"/>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H138" s="6" t="s">
+        <v>940</v>
+      </c>
+      <c r="I138" s="6" t="s">
+        <v>828</v>
+      </c>
+      <c r="J138" s="6" t="s">
+        <v>805</v>
+      </c>
+      <c r="K138" s="6"/>
+      <c r="L138" s="6"/>
+      <c r="M138" s="6"/>
+    </row>
+    <row r="139" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
         <v>156</v>
       </c>
@@ -6235,9 +8483,20 @@
       <c r="G139" s="6" t="s">
         <v>548</v>
       </c>
-      <c r="H139" s="6"/>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H139" s="6" t="s">
+        <v>922</v>
+      </c>
+      <c r="I139" s="6" t="s">
+        <v>828</v>
+      </c>
+      <c r="J139" s="6" t="s">
+        <v>834</v>
+      </c>
+      <c r="K139" s="6"/>
+      <c r="L139" s="6"/>
+      <c r="M139" s="6"/>
+    </row>
+    <row r="140" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
         <v>156</v>
       </c>
@@ -6259,9 +8518,20 @@
       <c r="G140" s="6" t="s">
         <v>549</v>
       </c>
-      <c r="H140" s="6"/>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H140" s="6" t="s">
+        <v>941</v>
+      </c>
+      <c r="I140" s="6" t="s">
+        <v>884</v>
+      </c>
+      <c r="J140" s="6" t="s">
+        <v>841</v>
+      </c>
+      <c r="K140" s="6"/>
+      <c r="L140" s="6"/>
+      <c r="M140" s="6"/>
+    </row>
+    <row r="141" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
         <v>156</v>
       </c>
@@ -6283,9 +8553,20 @@
       <c r="G141" s="6" t="s">
         <v>550</v>
       </c>
-      <c r="H141" s="6"/>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H141" s="6" t="s">
+        <v>921</v>
+      </c>
+      <c r="I141" s="6" t="s">
+        <v>845</v>
+      </c>
+      <c r="J141" s="6" t="s">
+        <v>826</v>
+      </c>
+      <c r="K141" s="6"/>
+      <c r="L141" s="6"/>
+      <c r="M141" s="6"/>
+    </row>
+    <row r="142" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
         <v>156</v>
       </c>
@@ -6307,9 +8588,20 @@
       <c r="G142" s="6" t="s">
         <v>551</v>
       </c>
-      <c r="H142" s="6"/>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H142" s="6" t="s">
+        <v>942</v>
+      </c>
+      <c r="I142" s="6" t="s">
+        <v>908</v>
+      </c>
+      <c r="J142" s="6" t="s">
+        <v>826</v>
+      </c>
+      <c r="K142" s="6"/>
+      <c r="L142" s="6"/>
+      <c r="M142" s="6"/>
+    </row>
+    <row r="143" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
         <v>156</v>
       </c>
@@ -6331,9 +8623,20 @@
       <c r="G143" s="6" t="s">
         <v>552</v>
       </c>
-      <c r="H143" s="6"/>
-    </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H143" s="6" t="s">
+        <v>943</v>
+      </c>
+      <c r="I143" s="6" t="s">
+        <v>873</v>
+      </c>
+      <c r="J143" s="6" t="s">
+        <v>817</v>
+      </c>
+      <c r="K143" s="6"/>
+      <c r="L143" s="6"/>
+      <c r="M143" s="6"/>
+    </row>
+    <row r="144" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
         <v>238</v>
       </c>
@@ -6355,9 +8658,20 @@
       <c r="G144" s="6" t="s">
         <v>553</v>
       </c>
-      <c r="H144" s="6"/>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H144" s="6" t="s">
+        <v>944</v>
+      </c>
+      <c r="I144" s="6" t="s">
+        <v>845</v>
+      </c>
+      <c r="J144" s="6" t="s">
+        <v>808</v>
+      </c>
+      <c r="K144" s="6"/>
+      <c r="L144" s="6"/>
+      <c r="M144" s="6"/>
+    </row>
+    <row r="145" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
         <v>238</v>
       </c>
@@ -6379,9 +8693,20 @@
       <c r="G145" s="6" t="s">
         <v>554</v>
       </c>
-      <c r="H145" s="6"/>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H145" s="6" t="s">
+        <v>945</v>
+      </c>
+      <c r="I145" s="6" t="s">
+        <v>845</v>
+      </c>
+      <c r="J145" s="6" t="s">
+        <v>805</v>
+      </c>
+      <c r="K145" s="6"/>
+      <c r="L145" s="6"/>
+      <c r="M145" s="6"/>
+    </row>
+    <row r="146" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
         <v>238</v>
       </c>
@@ -6403,9 +8728,20 @@
       <c r="G146" s="6" t="s">
         <v>555</v>
       </c>
-      <c r="H146" s="6"/>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H146" s="6" t="s">
+        <v>946</v>
+      </c>
+      <c r="I146" s="6" t="s">
+        <v>865</v>
+      </c>
+      <c r="J146" s="6" t="s">
+        <v>790</v>
+      </c>
+      <c r="K146" s="6"/>
+      <c r="L146" s="6"/>
+      <c r="M146" s="6"/>
+    </row>
+    <row r="147" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
         <v>238</v>
       </c>
@@ -6427,9 +8763,20 @@
       <c r="G147" s="6" t="s">
         <v>556</v>
       </c>
-      <c r="H147" s="6"/>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H147" s="6" t="s">
+        <v>947</v>
+      </c>
+      <c r="I147" s="6" t="s">
+        <v>948</v>
+      </c>
+      <c r="J147" s="6" t="s">
+        <v>790</v>
+      </c>
+      <c r="K147" s="6"/>
+      <c r="L147" s="6"/>
+      <c r="M147" s="6"/>
+    </row>
+    <row r="148" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
         <v>238</v>
       </c>
@@ -6451,9 +8798,20 @@
       <c r="G148" s="6" t="s">
         <v>557</v>
       </c>
-      <c r="H148" s="6"/>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H148" s="6" t="s">
+        <v>694</v>
+      </c>
+      <c r="I148" s="6" t="s">
+        <v>892</v>
+      </c>
+      <c r="J148" s="6" t="s">
+        <v>802</v>
+      </c>
+      <c r="K148" s="6"/>
+      <c r="L148" s="6"/>
+      <c r="M148" s="6"/>
+    </row>
+    <row r="149" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
         <v>238</v>
       </c>
@@ -6475,9 +8833,20 @@
       <c r="G149" s="6" t="s">
         <v>558</v>
       </c>
-      <c r="H149" s="6"/>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H149" s="6" t="s">
+        <v>949</v>
+      </c>
+      <c r="I149" s="6" t="s">
+        <v>950</v>
+      </c>
+      <c r="J149" s="6" t="s">
+        <v>834</v>
+      </c>
+      <c r="K149" s="6"/>
+      <c r="L149" s="6"/>
+      <c r="M149" s="6"/>
+    </row>
+    <row r="150" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
         <v>238</v>
       </c>
@@ -6499,9 +8868,20 @@
       <c r="G150" s="6" t="s">
         <v>559</v>
       </c>
-      <c r="H150" s="6"/>
-    </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H150" s="6" t="s">
+        <v>951</v>
+      </c>
+      <c r="I150" s="6" t="s">
+        <v>801</v>
+      </c>
+      <c r="J150" s="6" t="s">
+        <v>817</v>
+      </c>
+      <c r="K150" s="6"/>
+      <c r="L150" s="6"/>
+      <c r="M150" s="6"/>
+    </row>
+    <row r="151" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
         <v>238</v>
       </c>
@@ -6523,9 +8903,20 @@
       <c r="G151" s="6" t="s">
         <v>560</v>
       </c>
-      <c r="H151" s="6"/>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H151" s="6" t="s">
+        <v>756</v>
+      </c>
+      <c r="I151" s="6" t="s">
+        <v>807</v>
+      </c>
+      <c r="J151" s="6" t="s">
+        <v>790</v>
+      </c>
+      <c r="K151" s="6"/>
+      <c r="L151" s="6"/>
+      <c r="M151" s="6"/>
+    </row>
+    <row r="152" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
         <v>238</v>
       </c>
@@ -6547,9 +8938,20 @@
       <c r="G152" s="6" t="s">
         <v>561</v>
       </c>
-      <c r="H152" s="6"/>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H152" s="6" t="s">
+        <v>952</v>
+      </c>
+      <c r="I152" s="6" t="s">
+        <v>821</v>
+      </c>
+      <c r="J152" s="6" t="s">
+        <v>808</v>
+      </c>
+      <c r="K152" s="6"/>
+      <c r="L152" s="6"/>
+      <c r="M152" s="6"/>
+    </row>
+    <row r="153" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A153" s="1" t="s">
         <v>238</v>
       </c>
@@ -6571,9 +8973,20 @@
       <c r="G153" s="6" t="s">
         <v>562</v>
       </c>
-      <c r="H153" s="6"/>
-    </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H153" s="6" t="s">
+        <v>932</v>
+      </c>
+      <c r="I153" s="6" t="s">
+        <v>809</v>
+      </c>
+      <c r="J153" s="6" t="s">
+        <v>799</v>
+      </c>
+      <c r="K153" s="6"/>
+      <c r="L153" s="6"/>
+      <c r="M153" s="6"/>
+    </row>
+    <row r="154" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
         <v>238</v>
       </c>
@@ -6595,9 +9008,20 @@
       <c r="G154" s="6" t="s">
         <v>563</v>
       </c>
-      <c r="H154" s="6"/>
-    </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H154" s="6" t="s">
+        <v>953</v>
+      </c>
+      <c r="I154" s="6" t="s">
+        <v>954</v>
+      </c>
+      <c r="J154" s="6" t="s">
+        <v>816</v>
+      </c>
+      <c r="K154" s="6"/>
+      <c r="L154" s="6"/>
+      <c r="M154" s="6"/>
+    </row>
+    <row r="155" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A155" s="1" t="s">
         <v>238</v>
       </c>
@@ -6619,9 +9043,20 @@
       <c r="G155" s="6" t="s">
         <v>564</v>
       </c>
-      <c r="H155" s="6"/>
-    </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H155" s="6" t="s">
+        <v>955</v>
+      </c>
+      <c r="I155" s="6" t="s">
+        <v>956</v>
+      </c>
+      <c r="J155" s="6" t="s">
+        <v>812</v>
+      </c>
+      <c r="K155" s="6"/>
+      <c r="L155" s="6"/>
+      <c r="M155" s="6"/>
+    </row>
+    <row r="156" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
         <v>238</v>
       </c>
@@ -6643,9 +9078,20 @@
       <c r="G156" s="6" t="s">
         <v>565</v>
       </c>
-      <c r="H156" s="6"/>
-    </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H156" s="6" t="s">
+        <v>957</v>
+      </c>
+      <c r="I156" s="6" t="s">
+        <v>814</v>
+      </c>
+      <c r="J156" s="6" t="s">
+        <v>834</v>
+      </c>
+      <c r="K156" s="6"/>
+      <c r="L156" s="6"/>
+      <c r="M156" s="6"/>
+    </row>
+    <row r="157" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
         <v>238</v>
       </c>
@@ -6667,9 +9113,20 @@
       <c r="G157" s="6" t="s">
         <v>566</v>
       </c>
-      <c r="H157" s="6"/>
-    </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H157" s="6" t="s">
+        <v>958</v>
+      </c>
+      <c r="I157" s="6" t="s">
+        <v>959</v>
+      </c>
+      <c r="J157" s="6" t="s">
+        <v>826</v>
+      </c>
+      <c r="K157" s="6"/>
+      <c r="L157" s="6"/>
+      <c r="M157" s="6"/>
+    </row>
+    <row r="158" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
         <v>238</v>
       </c>
@@ -6691,9 +9148,20 @@
       <c r="G158" s="6" t="s">
         <v>567</v>
       </c>
-      <c r="H158" s="6"/>
-    </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H158" s="6" t="s">
+        <v>960</v>
+      </c>
+      <c r="I158" s="6" t="s">
+        <v>798</v>
+      </c>
+      <c r="J158" s="6" t="s">
+        <v>841</v>
+      </c>
+      <c r="K158" s="6"/>
+      <c r="L158" s="6"/>
+      <c r="M158" s="6"/>
+    </row>
+    <row r="159" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A159" s="1" t="s">
         <v>238</v>
       </c>
@@ -6715,9 +9183,20 @@
       <c r="G159" s="6" t="s">
         <v>568</v>
       </c>
-      <c r="H159" s="6"/>
-    </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H159" s="6" t="s">
+        <v>889</v>
+      </c>
+      <c r="I159" s="6" t="s">
+        <v>880</v>
+      </c>
+      <c r="J159" s="6" t="s">
+        <v>954</v>
+      </c>
+      <c r="K159" s="6"/>
+      <c r="L159" s="6"/>
+      <c r="M159" s="6"/>
+    </row>
+    <row r="160" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A160" s="1" t="s">
         <v>238</v>
       </c>
@@ -6739,9 +9218,20 @@
       <c r="G160" s="6" t="s">
         <v>569</v>
       </c>
-      <c r="H160" s="6"/>
-    </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H160" s="6" t="s">
+        <v>696</v>
+      </c>
+      <c r="I160" s="6" t="s">
+        <v>961</v>
+      </c>
+      <c r="J160" s="6" t="s">
+        <v>817</v>
+      </c>
+      <c r="K160" s="6"/>
+      <c r="L160" s="6"/>
+      <c r="M160" s="6"/>
+    </row>
+    <row r="161" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
         <v>238</v>
       </c>
@@ -6763,9 +9253,20 @@
       <c r="G161" s="6" t="s">
         <v>570</v>
       </c>
-      <c r="H161" s="6"/>
-    </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H161" s="6" t="s">
+        <v>876</v>
+      </c>
+      <c r="I161" s="6" t="s">
+        <v>796</v>
+      </c>
+      <c r="J161" s="6" t="s">
+        <v>826</v>
+      </c>
+      <c r="K161" s="6"/>
+      <c r="L161" s="6"/>
+      <c r="M161" s="6"/>
+    </row>
+    <row r="162" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="s">
         <v>238</v>
       </c>
@@ -6787,9 +9288,20 @@
       <c r="G162" s="6" t="s">
         <v>571</v>
       </c>
-      <c r="H162" s="6"/>
-    </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H162" s="6" t="s">
+        <v>776</v>
+      </c>
+      <c r="I162" s="6" t="s">
+        <v>825</v>
+      </c>
+      <c r="J162" s="6" t="s">
+        <v>826</v>
+      </c>
+      <c r="K162" s="6"/>
+      <c r="L162" s="6"/>
+      <c r="M162" s="6"/>
+    </row>
+    <row r="163" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A163" s="1" t="s">
         <v>273</v>
       </c>
@@ -6811,9 +9323,20 @@
       <c r="G163" s="6" t="s">
         <v>572</v>
       </c>
-      <c r="H163" s="6"/>
-    </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H163" s="6" t="s">
+        <v>749</v>
+      </c>
+      <c r="I163" s="6" t="s">
+        <v>867</v>
+      </c>
+      <c r="J163" s="6" t="s">
+        <v>826</v>
+      </c>
+      <c r="K163" s="6"/>
+      <c r="L163" s="6"/>
+      <c r="M163" s="6"/>
+    </row>
+    <row r="164" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
         <v>273</v>
       </c>
@@ -6835,9 +9358,20 @@
       <c r="G164" s="6" t="s">
         <v>573</v>
       </c>
-      <c r="H164" s="6"/>
-    </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H164" s="6" t="s">
+        <v>962</v>
+      </c>
+      <c r="I164" s="6" t="s">
+        <v>807</v>
+      </c>
+      <c r="J164" s="6" t="s">
+        <v>799</v>
+      </c>
+      <c r="K164" s="6"/>
+      <c r="L164" s="6"/>
+      <c r="M164" s="6"/>
+    </row>
+    <row r="165" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A165" s="1" t="s">
         <v>273</v>
       </c>
@@ -6860,8 +9394,13 @@
         <v>574</v>
       </c>
       <c r="H165" s="6"/>
-    </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I165" s="6"/>
+      <c r="J165" s="6"/>
+      <c r="K165" s="6"/>
+      <c r="L165" s="6"/>
+      <c r="M165" s="6"/>
+    </row>
+    <row r="166" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
         <v>273</v>
       </c>
@@ -6884,8 +9423,13 @@
         <v>575</v>
       </c>
       <c r="H166" s="6"/>
-    </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I166" s="6"/>
+      <c r="J166" s="6"/>
+      <c r="K166" s="6"/>
+      <c r="L166" s="6"/>
+      <c r="M166" s="6"/>
+    </row>
+    <row r="167" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A167" s="1" t="s">
         <v>273</v>
       </c>
@@ -6908,8 +9452,13 @@
         <v>576</v>
       </c>
       <c r="H167" s="6"/>
-    </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I167" s="6"/>
+      <c r="J167" s="6"/>
+      <c r="K167" s="6"/>
+      <c r="L167" s="6"/>
+      <c r="M167" s="6"/>
+    </row>
+    <row r="168" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A168" s="1" t="s">
         <v>273</v>
       </c>
@@ -6931,9 +9480,20 @@
       <c r="G168" s="6" t="s">
         <v>577</v>
       </c>
-      <c r="H168" s="6"/>
-    </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H168" s="6" t="s">
+        <v>822</v>
+      </c>
+      <c r="I168" s="6" t="s">
+        <v>807</v>
+      </c>
+      <c r="J168" s="6" t="s">
+        <v>790</v>
+      </c>
+      <c r="K168" s="6"/>
+      <c r="L168" s="6"/>
+      <c r="M168" s="6"/>
+    </row>
+    <row r="169" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A169" s="1" t="s">
         <v>273</v>
       </c>
@@ -6955,9 +9515,20 @@
       <c r="G169" s="6" t="s">
         <v>578</v>
       </c>
-      <c r="H169" s="6"/>
-    </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H169" s="6" t="s">
+        <v>856</v>
+      </c>
+      <c r="I169" s="6" t="s">
+        <v>862</v>
+      </c>
+      <c r="J169" s="6" t="s">
+        <v>826</v>
+      </c>
+      <c r="K169" s="6"/>
+      <c r="L169" s="6"/>
+      <c r="M169" s="6"/>
+    </row>
+    <row r="170" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A170" s="1" t="s">
         <v>273</v>
       </c>
@@ -6979,9 +9550,20 @@
       <c r="G170" s="6" t="s">
         <v>579</v>
       </c>
-      <c r="H170" s="6"/>
-    </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H170" s="6" t="s">
+        <v>883</v>
+      </c>
+      <c r="I170" s="6" t="s">
+        <v>853</v>
+      </c>
+      <c r="J170" s="6" t="s">
+        <v>799</v>
+      </c>
+      <c r="K170" s="6"/>
+      <c r="L170" s="6"/>
+      <c r="M170" s="6"/>
+    </row>
+    <row r="171" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A171" s="1" t="s">
         <v>273</v>
       </c>
@@ -7003,9 +9585,20 @@
       <c r="G171" s="6" t="s">
         <v>580</v>
       </c>
-      <c r="H171" s="6"/>
-    </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H171" s="6" t="s">
+        <v>836</v>
+      </c>
+      <c r="I171" s="6" t="s">
+        <v>873</v>
+      </c>
+      <c r="J171" s="6" t="s">
+        <v>808</v>
+      </c>
+      <c r="K171" s="6"/>
+      <c r="L171" s="6"/>
+      <c r="M171" s="6"/>
+    </row>
+    <row r="172" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A172" s="1" t="s">
         <v>273</v>
       </c>
@@ -7027,9 +9620,20 @@
       <c r="G172" s="6" t="s">
         <v>581</v>
       </c>
-      <c r="H172" s="6"/>
-    </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H172" s="6" t="s">
+        <v>963</v>
+      </c>
+      <c r="I172" s="6" t="s">
+        <v>821</v>
+      </c>
+      <c r="J172" s="6" t="s">
+        <v>847</v>
+      </c>
+      <c r="K172" s="6"/>
+      <c r="L172" s="6"/>
+      <c r="M172" s="6"/>
+    </row>
+    <row r="173" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A173" s="1" t="s">
         <v>273</v>
       </c>
@@ -7051,9 +9655,20 @@
       <c r="G173" s="6" t="s">
         <v>582</v>
       </c>
-      <c r="H173" s="6"/>
-    </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H173" s="6" t="s">
+        <v>800</v>
+      </c>
+      <c r="I173" s="6" t="s">
+        <v>809</v>
+      </c>
+      <c r="J173" s="6" t="s">
+        <v>915</v>
+      </c>
+      <c r="K173" s="6"/>
+      <c r="L173" s="6"/>
+      <c r="M173" s="6"/>
+    </row>
+    <row r="174" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A174" s="1" t="s">
         <v>273</v>
       </c>
@@ -7075,9 +9690,20 @@
       <c r="G174" s="6" t="s">
         <v>583</v>
       </c>
-      <c r="H174" s="6"/>
-    </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H174" s="6" t="s">
+        <v>964</v>
+      </c>
+      <c r="I174" s="6" t="s">
+        <v>871</v>
+      </c>
+      <c r="J174" s="6" t="s">
+        <v>817</v>
+      </c>
+      <c r="K174" s="6"/>
+      <c r="L174" s="6"/>
+      <c r="M174" s="6"/>
+    </row>
+    <row r="175" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A175" s="1" t="s">
         <v>273</v>
       </c>
@@ -7099,9 +9725,20 @@
       <c r="G175" s="6" t="s">
         <v>584</v>
       </c>
-      <c r="H175" s="6"/>
-    </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H175" s="6" t="s">
+        <v>815</v>
+      </c>
+      <c r="I175" s="6" t="s">
+        <v>888</v>
+      </c>
+      <c r="J175" s="6" t="s">
+        <v>790</v>
+      </c>
+      <c r="K175" s="6"/>
+      <c r="L175" s="6"/>
+      <c r="M175" s="6"/>
+    </row>
+    <row r="176" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A176" s="1" t="s">
         <v>273</v>
       </c>
@@ -7123,9 +9760,20 @@
       <c r="G176" s="6" t="s">
         <v>585</v>
       </c>
-      <c r="H176" s="6"/>
-    </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H176" s="6" t="s">
+        <v>702</v>
+      </c>
+      <c r="I176" s="6" t="s">
+        <v>855</v>
+      </c>
+      <c r="J176" s="6" t="s">
+        <v>954</v>
+      </c>
+      <c r="K176" s="6"/>
+      <c r="L176" s="6"/>
+      <c r="M176" s="6"/>
+    </row>
+    <row r="177" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A177" s="1" t="s">
         <v>273</v>
       </c>
@@ -7147,9 +9795,20 @@
       <c r="G177" s="6" t="s">
         <v>586</v>
       </c>
-      <c r="H177" s="6"/>
-    </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H177" s="6" t="s">
+        <v>773</v>
+      </c>
+      <c r="I177" s="6" t="s">
+        <v>873</v>
+      </c>
+      <c r="J177" s="6" t="s">
+        <v>925</v>
+      </c>
+      <c r="K177" s="6"/>
+      <c r="L177" s="6"/>
+      <c r="M177" s="6"/>
+    </row>
+    <row r="178" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A178" s="1" t="s">
         <v>273</v>
       </c>
@@ -7171,9 +9830,20 @@
       <c r="G178" s="6" t="s">
         <v>587</v>
       </c>
-      <c r="H178" s="6"/>
-    </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H178" s="6" t="s">
+        <v>957</v>
+      </c>
+      <c r="I178" s="6" t="s">
+        <v>892</v>
+      </c>
+      <c r="J178" s="6" t="s">
+        <v>790</v>
+      </c>
+      <c r="K178" s="6"/>
+      <c r="L178" s="6"/>
+      <c r="M178" s="6"/>
+    </row>
+    <row r="179" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A179" s="1" t="s">
         <v>288</v>
       </c>
@@ -7195,9 +9865,20 @@
       <c r="G179" s="6" t="s">
         <v>588</v>
       </c>
-      <c r="H179" s="6"/>
-    </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H179" s="6" t="s">
+        <v>960</v>
+      </c>
+      <c r="I179" s="6" t="s">
+        <v>867</v>
+      </c>
+      <c r="J179" s="6" t="s">
+        <v>808</v>
+      </c>
+      <c r="K179" s="6"/>
+      <c r="L179" s="6"/>
+      <c r="M179" s="6"/>
+    </row>
+    <row r="180" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A180" s="1" t="s">
         <v>288</v>
       </c>
@@ -7219,9 +9900,20 @@
       <c r="G180" s="6" t="s">
         <v>589</v>
       </c>
-      <c r="H180" s="6"/>
-    </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H180" s="6" t="s">
+        <v>965</v>
+      </c>
+      <c r="I180" s="6" t="s">
+        <v>801</v>
+      </c>
+      <c r="J180" s="6" t="s">
+        <v>790</v>
+      </c>
+      <c r="K180" s="6"/>
+      <c r="L180" s="6"/>
+      <c r="M180" s="6"/>
+    </row>
+    <row r="181" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A181" s="1" t="s">
         <v>288</v>
       </c>
@@ -7243,9 +9935,20 @@
       <c r="G181" s="6" t="s">
         <v>590</v>
       </c>
-      <c r="H181" s="6"/>
-    </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H181" s="6" t="s">
+        <v>966</v>
+      </c>
+      <c r="I181" s="6" t="s">
+        <v>855</v>
+      </c>
+      <c r="J181" s="6" t="s">
+        <v>847</v>
+      </c>
+      <c r="K181" s="6"/>
+      <c r="L181" s="6"/>
+      <c r="M181" s="6"/>
+    </row>
+    <row r="182" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A182" s="1" t="s">
         <v>288</v>
       </c>
@@ -7267,9 +9970,20 @@
       <c r="G182" s="6" t="s">
         <v>591</v>
       </c>
-      <c r="H182" s="6"/>
-    </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H182" s="6" t="s">
+        <v>967</v>
+      </c>
+      <c r="I182" s="6" t="s">
+        <v>968</v>
+      </c>
+      <c r="J182" s="6" t="s">
+        <v>817</v>
+      </c>
+      <c r="K182" s="6"/>
+      <c r="L182" s="6"/>
+      <c r="M182" s="6"/>
+    </row>
+    <row r="183" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A183" s="1" t="s">
         <v>288</v>
       </c>
@@ -7291,9 +10005,20 @@
       <c r="G183" s="6" t="s">
         <v>592</v>
       </c>
-      <c r="H183" s="6"/>
-    </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H183" s="6" t="s">
+        <v>969</v>
+      </c>
+      <c r="I183" s="6" t="s">
+        <v>821</v>
+      </c>
+      <c r="J183" s="6" t="s">
+        <v>970</v>
+      </c>
+      <c r="K183" s="6"/>
+      <c r="L183" s="6"/>
+      <c r="M183" s="6"/>
+    </row>
+    <row r="184" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A184" s="1" t="s">
         <v>288</v>
       </c>
@@ -7315,9 +10040,20 @@
       <c r="G184" s="6" t="s">
         <v>593</v>
       </c>
-      <c r="H184" s="6"/>
-    </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H184" s="6" t="s">
+        <v>889</v>
+      </c>
+      <c r="I184" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="J184" s="6" t="s">
+        <v>808</v>
+      </c>
+      <c r="K184" s="6"/>
+      <c r="L184" s="6"/>
+      <c r="M184" s="6"/>
+    </row>
+    <row r="185" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A185" s="1" t="s">
         <v>288</v>
       </c>
@@ -7339,9 +10075,20 @@
       <c r="G185" s="6" t="s">
         <v>594</v>
       </c>
-      <c r="H185" s="6"/>
-    </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H185" s="6" t="s">
+        <v>773</v>
+      </c>
+      <c r="I185" s="6" t="s">
+        <v>862</v>
+      </c>
+      <c r="J185" s="6" t="s">
+        <v>808</v>
+      </c>
+      <c r="K185" s="6"/>
+      <c r="L185" s="6"/>
+      <c r="M185" s="6"/>
+    </row>
+    <row r="186" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A186" s="1" t="s">
         <v>288</v>
       </c>
@@ -7363,9 +10110,20 @@
       <c r="G186" s="6" t="s">
         <v>595</v>
       </c>
-      <c r="H186" s="6"/>
-    </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H186" s="6" t="s">
+        <v>696</v>
+      </c>
+      <c r="I186" s="6" t="s">
+        <v>875</v>
+      </c>
+      <c r="J186" s="6" t="s">
+        <v>808</v>
+      </c>
+      <c r="K186" s="6"/>
+      <c r="L186" s="6"/>
+      <c r="M186" s="6"/>
+    </row>
+    <row r="187" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A187" s="1" t="s">
         <v>288</v>
       </c>
@@ -7387,9 +10145,20 @@
       <c r="G187" s="6" t="s">
         <v>596</v>
       </c>
-      <c r="H187" s="6"/>
-    </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H187" s="6" t="s">
+        <v>971</v>
+      </c>
+      <c r="I187" s="6" t="s">
+        <v>796</v>
+      </c>
+      <c r="J187" s="6" t="s">
+        <v>808</v>
+      </c>
+      <c r="K187" s="6"/>
+      <c r="L187" s="6"/>
+      <c r="M187" s="6"/>
+    </row>
+    <row r="188" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A188" s="1" t="s">
         <v>288</v>
       </c>
@@ -7411,9 +10180,20 @@
       <c r="G188" s="6" t="s">
         <v>597</v>
       </c>
-      <c r="H188" s="6"/>
-    </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H188" s="6" t="s">
+        <v>972</v>
+      </c>
+      <c r="I188" s="6" t="s">
+        <v>819</v>
+      </c>
+      <c r="J188" s="6" t="s">
+        <v>805</v>
+      </c>
+      <c r="K188" s="6"/>
+      <c r="L188" s="6"/>
+      <c r="M188" s="6"/>
+    </row>
+    <row r="189" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A189" s="1" t="s">
         <v>288</v>
       </c>
@@ -7435,9 +10215,20 @@
       <c r="G189" s="6" t="s">
         <v>598</v>
       </c>
-      <c r="H189" s="6"/>
-    </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H189" s="6" t="s">
+        <v>803</v>
+      </c>
+      <c r="I189" s="6" t="s">
+        <v>796</v>
+      </c>
+      <c r="J189" s="6" t="s">
+        <v>847</v>
+      </c>
+      <c r="K189" s="6"/>
+      <c r="L189" s="6"/>
+      <c r="M189" s="6"/>
+    </row>
+    <row r="190" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A190" s="1" t="s">
         <v>288</v>
       </c>
@@ -7459,9 +10250,20 @@
       <c r="G190" s="6" t="s">
         <v>599</v>
       </c>
-      <c r="H190" s="6"/>
-    </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H190" s="6" t="s">
+        <v>973</v>
+      </c>
+      <c r="I190" s="6" t="s">
+        <v>819</v>
+      </c>
+      <c r="J190" s="6" t="s">
+        <v>847</v>
+      </c>
+      <c r="K190" s="6"/>
+      <c r="L190" s="6"/>
+      <c r="M190" s="6"/>
+    </row>
+    <row r="191" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A191" s="1" t="s">
         <v>288</v>
       </c>
@@ -7483,9 +10285,20 @@
       <c r="G191" s="6" t="s">
         <v>600</v>
       </c>
-      <c r="H191" s="6"/>
-    </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H191" s="6" t="s">
+        <v>781</v>
+      </c>
+      <c r="I191" s="6" t="s">
+        <v>888</v>
+      </c>
+      <c r="J191" s="6" t="s">
+        <v>847</v>
+      </c>
+      <c r="K191" s="6"/>
+      <c r="L191" s="6"/>
+      <c r="M191" s="6"/>
+    </row>
+    <row r="192" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A192" s="1" t="s">
         <v>288</v>
       </c>
@@ -7507,9 +10320,20 @@
       <c r="G192" s="6" t="s">
         <v>601</v>
       </c>
-      <c r="H192" s="6"/>
-    </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H192" s="6" t="s">
+        <v>773</v>
+      </c>
+      <c r="I192" s="6" t="s">
+        <v>873</v>
+      </c>
+      <c r="J192" s="6" t="s">
+        <v>802</v>
+      </c>
+      <c r="K192" s="6"/>
+      <c r="L192" s="6"/>
+      <c r="M192" s="6"/>
+    </row>
+    <row r="193" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A193" s="1" t="s">
         <v>288</v>
       </c>
@@ -7531,9 +10355,20 @@
       <c r="G193" s="6" t="s">
         <v>602</v>
       </c>
-      <c r="H193" s="6"/>
-    </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H193" s="6" t="s">
+        <v>836</v>
+      </c>
+      <c r="I193" s="6" t="s">
+        <v>890</v>
+      </c>
+      <c r="J193" s="6" t="s">
+        <v>909</v>
+      </c>
+      <c r="K193" s="6"/>
+      <c r="L193" s="6"/>
+      <c r="M193" s="6"/>
+    </row>
+    <row r="194" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A194" s="1" t="s">
         <v>288</v>
       </c>
@@ -7555,9 +10390,20 @@
       <c r="G194" s="6" t="s">
         <v>603</v>
       </c>
-      <c r="H194" s="6"/>
-    </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H194" s="6" t="s">
+        <v>974</v>
+      </c>
+      <c r="I194" s="6" t="s">
+        <v>892</v>
+      </c>
+      <c r="J194" s="6" t="s">
+        <v>812</v>
+      </c>
+      <c r="K194" s="6"/>
+      <c r="L194" s="6"/>
+      <c r="M194" s="6"/>
+    </row>
+    <row r="195" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A195" s="1" t="s">
         <v>288</v>
       </c>
@@ -7579,9 +10425,20 @@
       <c r="G195" s="6" t="s">
         <v>604</v>
       </c>
-      <c r="H195" s="6"/>
-    </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H195" s="6" t="s">
+        <v>904</v>
+      </c>
+      <c r="I195" s="6" t="s">
+        <v>819</v>
+      </c>
+      <c r="J195" s="6" t="s">
+        <v>808</v>
+      </c>
+      <c r="K195" s="6"/>
+      <c r="L195" s="6"/>
+      <c r="M195" s="6"/>
+    </row>
+    <row r="196" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A196" s="1" t="s">
         <v>288</v>
       </c>
@@ -7603,9 +10460,20 @@
       <c r="G196" s="6" t="s">
         <v>605</v>
       </c>
-      <c r="H196" s="6"/>
-    </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H196" s="6" t="s">
+        <v>974</v>
+      </c>
+      <c r="I196" s="6" t="s">
+        <v>796</v>
+      </c>
+      <c r="J196" s="6" t="s">
+        <v>790</v>
+      </c>
+      <c r="K196" s="6"/>
+      <c r="L196" s="6"/>
+      <c r="M196" s="6"/>
+    </row>
+    <row r="197" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A197" s="1" t="s">
         <v>310</v>
       </c>
@@ -7627,9 +10495,20 @@
       <c r="G197" s="6" t="s">
         <v>606</v>
       </c>
-      <c r="H197" s="6"/>
-    </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H197" s="6" t="s">
+        <v>975</v>
+      </c>
+      <c r="I197" s="6" t="s">
+        <v>871</v>
+      </c>
+      <c r="J197" s="6" t="s">
+        <v>808</v>
+      </c>
+      <c r="K197" s="6"/>
+      <c r="L197" s="6"/>
+      <c r="M197" s="6"/>
+    </row>
+    <row r="198" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A198" s="1" t="s">
         <v>310</v>
       </c>
@@ -7651,9 +10530,20 @@
       <c r="G198" s="6" t="s">
         <v>607</v>
       </c>
-      <c r="H198" s="6"/>
-    </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H198" s="6" t="s">
+        <v>877</v>
+      </c>
+      <c r="I198" s="6" t="s">
+        <v>845</v>
+      </c>
+      <c r="J198" s="6" t="s">
+        <v>790</v>
+      </c>
+      <c r="K198" s="6"/>
+      <c r="L198" s="6"/>
+      <c r="M198" s="6"/>
+    </row>
+    <row r="199" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A199" s="1" t="s">
         <v>310</v>
       </c>
@@ -7675,9 +10565,20 @@
       <c r="G199" s="6" t="s">
         <v>608</v>
       </c>
-      <c r="H199" s="6"/>
-    </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H199" s="6" t="s">
+        <v>780</v>
+      </c>
+      <c r="I199" s="6" t="s">
+        <v>828</v>
+      </c>
+      <c r="J199" s="6" t="s">
+        <v>802</v>
+      </c>
+      <c r="K199" s="6"/>
+      <c r="L199" s="6"/>
+      <c r="M199" s="6"/>
+    </row>
+    <row r="200" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A200" s="1" t="s">
         <v>310</v>
       </c>
@@ -7699,9 +10600,20 @@
       <c r="G200" s="6" t="s">
         <v>609</v>
       </c>
-      <c r="H200" s="6"/>
-    </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H200" s="6" t="s">
+        <v>976</v>
+      </c>
+      <c r="I200" s="6" t="s">
+        <v>796</v>
+      </c>
+      <c r="J200" s="6" t="s">
+        <v>817</v>
+      </c>
+      <c r="K200" s="6"/>
+      <c r="L200" s="6"/>
+      <c r="M200" s="6"/>
+    </row>
+    <row r="201" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A201" s="1" t="s">
         <v>310</v>
       </c>
@@ -7723,9 +10635,20 @@
       <c r="G201" s="6" t="s">
         <v>610</v>
       </c>
-      <c r="H201" s="6"/>
-    </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H201" s="6" t="s">
+        <v>977</v>
+      </c>
+      <c r="I201" s="6" t="s">
+        <v>884</v>
+      </c>
+      <c r="J201" s="6" t="s">
+        <v>817</v>
+      </c>
+      <c r="K201" s="6"/>
+      <c r="L201" s="6"/>
+      <c r="M201" s="6"/>
+    </row>
+    <row r="202" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A202" s="1" t="s">
         <v>310</v>
       </c>
@@ -7747,9 +10670,20 @@
       <c r="G202" s="6" t="s">
         <v>611</v>
       </c>
-      <c r="H202" s="6"/>
-    </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H202" s="6" t="s">
+        <v>883</v>
+      </c>
+      <c r="I202" s="6" t="s">
+        <v>821</v>
+      </c>
+      <c r="J202" s="6" t="s">
+        <v>826</v>
+      </c>
+      <c r="K202" s="6"/>
+      <c r="L202" s="6"/>
+      <c r="M202" s="6"/>
+    </row>
+    <row r="203" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A203" s="1" t="s">
         <v>310</v>
       </c>
@@ -7771,9 +10705,20 @@
       <c r="G203" s="6" t="s">
         <v>612</v>
       </c>
-      <c r="H203" s="6"/>
-    </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H203" s="6" t="s">
+        <v>978</v>
+      </c>
+      <c r="I203" s="6" t="s">
+        <v>882</v>
+      </c>
+      <c r="J203" s="6" t="s">
+        <v>799</v>
+      </c>
+      <c r="K203" s="6"/>
+      <c r="L203" s="6"/>
+      <c r="M203" s="6"/>
+    </row>
+    <row r="204" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A204" s="1" t="s">
         <v>310</v>
       </c>
@@ -7795,9 +10740,20 @@
       <c r="G204" s="6" t="s">
         <v>613</v>
       </c>
-      <c r="H204" s="6"/>
-    </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H204" s="6" t="s">
+        <v>929</v>
+      </c>
+      <c r="I204" s="6" t="s">
+        <v>875</v>
+      </c>
+      <c r="J204" s="6" t="s">
+        <v>812</v>
+      </c>
+      <c r="K204" s="6"/>
+      <c r="L204" s="6"/>
+      <c r="M204" s="6"/>
+    </row>
+    <row r="205" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A205" s="1" t="s">
         <v>310</v>
       </c>
@@ -7819,9 +10775,20 @@
       <c r="G205" s="6" t="s">
         <v>614</v>
       </c>
-      <c r="H205" s="6"/>
-    </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H205" s="6" t="s">
+        <v>823</v>
+      </c>
+      <c r="I205" s="6" t="s">
+        <v>847</v>
+      </c>
+      <c r="J205" s="6" t="s">
+        <v>925</v>
+      </c>
+      <c r="K205" s="6"/>
+      <c r="L205" s="6"/>
+      <c r="M205" s="6"/>
+    </row>
+    <row r="206" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A206" s="1" t="s">
         <v>310</v>
       </c>
@@ -7843,9 +10810,20 @@
       <c r="G206" s="6" t="s">
         <v>615</v>
       </c>
-      <c r="H206" s="6"/>
-    </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H206" s="6" t="s">
+        <v>974</v>
+      </c>
+      <c r="I206" s="6" t="s">
+        <v>908</v>
+      </c>
+      <c r="J206" s="6" t="s">
+        <v>979</v>
+      </c>
+      <c r="K206" s="6"/>
+      <c r="L206" s="6"/>
+      <c r="M206" s="6"/>
+    </row>
+    <row r="207" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A207" s="1" t="s">
         <v>310</v>
       </c>
@@ -7867,9 +10845,20 @@
       <c r="G207" s="6" t="s">
         <v>616</v>
       </c>
-      <c r="H207" s="6"/>
-    </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H207" s="6" t="s">
+        <v>980</v>
+      </c>
+      <c r="I207" s="6" t="s">
+        <v>882</v>
+      </c>
+      <c r="J207" s="6" t="s">
+        <v>954</v>
+      </c>
+      <c r="K207" s="6"/>
+      <c r="L207" s="6"/>
+      <c r="M207" s="6"/>
+    </row>
+    <row r="208" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A208" s="1" t="s">
         <v>310</v>
       </c>
@@ -7891,9 +10880,20 @@
       <c r="G208" s="6" t="s">
         <v>617</v>
       </c>
-      <c r="H208" s="6"/>
-    </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H208" s="6" t="s">
+        <v>981</v>
+      </c>
+      <c r="I208" s="6" t="s">
+        <v>982</v>
+      </c>
+      <c r="J208" s="6" t="s">
+        <v>970</v>
+      </c>
+      <c r="K208" s="6"/>
+      <c r="L208" s="6"/>
+      <c r="M208" s="6"/>
+    </row>
+    <row r="209" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A209" s="1" t="s">
         <v>310</v>
       </c>
@@ -7915,9 +10915,20 @@
       <c r="G209" s="6" t="s">
         <v>618</v>
       </c>
-      <c r="H209" s="6"/>
-    </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H209" s="6" t="s">
+        <v>983</v>
+      </c>
+      <c r="I209" s="6" t="s">
+        <v>809</v>
+      </c>
+      <c r="J209" s="6" t="s">
+        <v>826</v>
+      </c>
+      <c r="K209" s="6"/>
+      <c r="L209" s="6"/>
+      <c r="M209" s="6"/>
+    </row>
+    <row r="210" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A210" s="1" t="s">
         <v>310</v>
       </c>
@@ -7939,9 +10950,20 @@
       <c r="G210" s="6" t="s">
         <v>619</v>
       </c>
-      <c r="H210" s="6"/>
-    </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H210" s="6" t="s">
+        <v>835</v>
+      </c>
+      <c r="I210" s="6" t="s">
+        <v>984</v>
+      </c>
+      <c r="J210" s="6" t="s">
+        <v>915</v>
+      </c>
+      <c r="K210" s="6"/>
+      <c r="L210" s="6"/>
+      <c r="M210" s="6"/>
+    </row>
+    <row r="211" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A211" s="1" t="s">
         <v>310</v>
       </c>
@@ -7963,9 +10985,20 @@
       <c r="G211" s="6" t="s">
         <v>620</v>
       </c>
-      <c r="H211" s="6"/>
-    </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H211" s="6" t="s">
+        <v>985</v>
+      </c>
+      <c r="I211" s="6" t="s">
+        <v>819</v>
+      </c>
+      <c r="J211" s="6" t="s">
+        <v>799</v>
+      </c>
+      <c r="K211" s="6"/>
+      <c r="L211" s="6"/>
+      <c r="M211" s="6"/>
+    </row>
+    <row r="212" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A212" s="1" t="s">
         <v>330</v>
       </c>
@@ -7987,9 +11020,20 @@
       <c r="G212" s="6" t="s">
         <v>621</v>
       </c>
-      <c r="H212" s="6"/>
-    </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H212" s="6" t="s">
+        <v>986</v>
+      </c>
+      <c r="I212" s="6" t="s">
+        <v>884</v>
+      </c>
+      <c r="J212" s="6" t="s">
+        <v>802</v>
+      </c>
+      <c r="K212" s="6"/>
+      <c r="L212" s="6"/>
+      <c r="M212" s="6"/>
+    </row>
+    <row r="213" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A213" s="1" t="s">
         <v>330</v>
       </c>
@@ -8011,9 +11055,20 @@
       <c r="G213" s="6" t="s">
         <v>622</v>
       </c>
-      <c r="H213" s="6"/>
-    </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H213" s="6" t="s">
+        <v>987</v>
+      </c>
+      <c r="I213" s="6" t="s">
+        <v>867</v>
+      </c>
+      <c r="J213" s="6" t="s">
+        <v>808</v>
+      </c>
+      <c r="K213" s="6"/>
+      <c r="L213" s="6"/>
+      <c r="M213" s="6"/>
+    </row>
+    <row r="214" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A214" s="1" t="s">
         <v>330</v>
       </c>
@@ -8035,9 +11090,20 @@
       <c r="G214" s="6" t="s">
         <v>623</v>
       </c>
-      <c r="H214" s="6"/>
-    </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H214" s="6" t="s">
+        <v>988</v>
+      </c>
+      <c r="I214" s="6" t="s">
+        <v>867</v>
+      </c>
+      <c r="J214" s="6" t="s">
+        <v>805</v>
+      </c>
+      <c r="K214" s="6"/>
+      <c r="L214" s="6"/>
+      <c r="M214" s="6"/>
+    </row>
+    <row r="215" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A215" s="1" t="s">
         <v>330</v>
       </c>
@@ -8059,9 +11125,20 @@
       <c r="G215" s="6" t="s">
         <v>624</v>
       </c>
-      <c r="H215" s="6"/>
-    </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H215" s="6" t="s">
+        <v>776</v>
+      </c>
+      <c r="I215" s="6" t="s">
+        <v>875</v>
+      </c>
+      <c r="J215" s="6" t="s">
+        <v>805</v>
+      </c>
+      <c r="K215" s="6"/>
+      <c r="L215" s="6"/>
+      <c r="M215" s="6"/>
+    </row>
+    <row r="216" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A216" s="1" t="s">
         <v>330</v>
       </c>
@@ -8083,9 +11160,20 @@
       <c r="G216" s="6" t="s">
         <v>625</v>
       </c>
-      <c r="H216" s="6"/>
-    </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H216" s="6" t="s">
+        <v>938</v>
+      </c>
+      <c r="I216" s="6" t="s">
+        <v>832</v>
+      </c>
+      <c r="J216" s="6" t="s">
+        <v>808</v>
+      </c>
+      <c r="K216" s="6"/>
+      <c r="L216" s="6"/>
+      <c r="M216" s="6"/>
+    </row>
+    <row r="217" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A217" s="1" t="s">
         <v>330</v>
       </c>
@@ -8107,9 +11195,20 @@
       <c r="G217" s="6" t="s">
         <v>626</v>
       </c>
-      <c r="H217" s="6"/>
-    </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H217" s="6" t="s">
+        <v>989</v>
+      </c>
+      <c r="I217" s="6" t="s">
+        <v>832</v>
+      </c>
+      <c r="J217" s="6" t="s">
+        <v>990</v>
+      </c>
+      <c r="K217" s="6"/>
+      <c r="L217" s="6"/>
+      <c r="M217" s="6"/>
+    </row>
+    <row r="218" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A218" s="1" t="s">
         <v>330</v>
       </c>
@@ -8131,9 +11230,20 @@
       <c r="G218" s="6" t="s">
         <v>627</v>
       </c>
-      <c r="H218" s="6"/>
-    </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H218" s="6" t="s">
+        <v>991</v>
+      </c>
+      <c r="I218" s="6" t="s">
+        <v>934</v>
+      </c>
+      <c r="J218" s="6" t="s">
+        <v>841</v>
+      </c>
+      <c r="K218" s="6"/>
+      <c r="L218" s="6"/>
+      <c r="M218" s="6"/>
+    </row>
+    <row r="219" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A219" s="1" t="s">
         <v>330</v>
       </c>
@@ -8155,9 +11265,20 @@
       <c r="G219" s="6" t="s">
         <v>628</v>
       </c>
-      <c r="H219" s="6"/>
-    </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H219" s="6" t="s">
+        <v>992</v>
+      </c>
+      <c r="I219" s="6" t="s">
+        <v>890</v>
+      </c>
+      <c r="J219" s="6" t="s">
+        <v>890</v>
+      </c>
+      <c r="K219" s="6"/>
+      <c r="L219" s="6"/>
+      <c r="M219" s="6"/>
+    </row>
+    <row r="220" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A220" s="1" t="s">
         <v>330</v>
       </c>
@@ -8179,9 +11300,20 @@
       <c r="G220" s="6" t="s">
         <v>629</v>
       </c>
-      <c r="H220" s="6"/>
-    </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H220" s="6" t="s">
+        <v>883</v>
+      </c>
+      <c r="I220" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="J220" s="6" t="s">
+        <v>925</v>
+      </c>
+      <c r="K220" s="6"/>
+      <c r="L220" s="6"/>
+      <c r="M220" s="6"/>
+    </row>
+    <row r="221" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A221" s="1" t="s">
         <v>330</v>
       </c>
@@ -8203,9 +11335,20 @@
       <c r="G221" s="6" t="s">
         <v>630</v>
       </c>
-      <c r="H221" s="6"/>
-    </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H221" s="6" t="s">
+        <v>993</v>
+      </c>
+      <c r="I221" s="6" t="s">
+        <v>994</v>
+      </c>
+      <c r="J221" s="6" t="s">
+        <v>915</v>
+      </c>
+      <c r="K221" s="6"/>
+      <c r="L221" s="6"/>
+      <c r="M221" s="6"/>
+    </row>
+    <row r="222" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A222" s="1" t="s">
         <v>330</v>
       </c>
@@ -8227,9 +11370,20 @@
       <c r="G222" s="6" t="s">
         <v>631</v>
       </c>
-      <c r="H222" s="6"/>
-    </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H222" s="6" t="s">
+        <v>995</v>
+      </c>
+      <c r="I222" s="6" t="s">
+        <v>994</v>
+      </c>
+      <c r="J222" s="6" t="s">
+        <v>915</v>
+      </c>
+      <c r="K222" s="6"/>
+      <c r="L222" s="6"/>
+      <c r="M222" s="6"/>
+    </row>
+    <row r="223" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A223" s="1" t="s">
         <v>330</v>
       </c>
@@ -8251,9 +11405,20 @@
       <c r="G223" s="6" t="s">
         <v>632</v>
       </c>
-      <c r="H223" s="6"/>
-    </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H223" s="6" t="s">
+        <v>840</v>
+      </c>
+      <c r="I223" s="6" t="s">
+        <v>796</v>
+      </c>
+      <c r="J223" s="6" t="s">
+        <v>826</v>
+      </c>
+      <c r="K223" s="6"/>
+      <c r="L223" s="6"/>
+      <c r="M223" s="6"/>
+    </row>
+    <row r="224" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A224" s="1" t="s">
         <v>330</v>
       </c>
@@ -8275,9 +11440,20 @@
       <c r="G224" s="6" t="s">
         <v>633</v>
       </c>
-      <c r="H224" s="6"/>
-    </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H224" s="6" t="s">
+        <v>788</v>
+      </c>
+      <c r="I224" s="6" t="s">
+        <v>984</v>
+      </c>
+      <c r="J224" s="6" t="s">
+        <v>799</v>
+      </c>
+      <c r="K224" s="6"/>
+      <c r="L224" s="6"/>
+      <c r="M224" s="6"/>
+    </row>
+    <row r="225" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A225" s="1" t="s">
         <v>330</v>
       </c>
@@ -8299,9 +11475,20 @@
       <c r="G225" s="6" t="s">
         <v>634</v>
       </c>
-      <c r="H225" s="6"/>
-    </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H225" s="6" t="s">
+        <v>977</v>
+      </c>
+      <c r="I225" s="6" t="s">
+        <v>870</v>
+      </c>
+      <c r="J225" s="6" t="s">
+        <v>847</v>
+      </c>
+      <c r="K225" s="6"/>
+      <c r="L225" s="6"/>
+      <c r="M225" s="6"/>
+    </row>
+    <row r="226" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A226" s="1" t="s">
         <v>330</v>
       </c>
@@ -8323,9 +11510,20 @@
       <c r="G226" s="6" t="s">
         <v>635</v>
       </c>
-      <c r="H226" s="6"/>
-    </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H226" s="6" t="s">
+        <v>874</v>
+      </c>
+      <c r="I226" s="6" t="s">
+        <v>888</v>
+      </c>
+      <c r="J226" s="6" t="s">
+        <v>802</v>
+      </c>
+      <c r="K226" s="6"/>
+      <c r="L226" s="6"/>
+      <c r="M226" s="6"/>
+    </row>
+    <row r="227" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A227" s="1" t="s">
         <v>330</v>
       </c>
@@ -8347,9 +11545,20 @@
       <c r="G227" s="6" t="s">
         <v>636</v>
       </c>
-      <c r="H227" s="6"/>
-    </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H227" s="6" t="s">
+        <v>996</v>
+      </c>
+      <c r="I227" s="6" t="s">
+        <v>828</v>
+      </c>
+      <c r="J227" s="6" t="s">
+        <v>808</v>
+      </c>
+      <c r="K227" s="6"/>
+      <c r="L227" s="6"/>
+      <c r="M227" s="6"/>
+    </row>
+    <row r="228" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A228" s="1" t="s">
         <v>330</v>
       </c>
@@ -8371,9 +11580,20 @@
       <c r="G228" s="6" t="s">
         <v>637</v>
       </c>
-      <c r="H228" s="6"/>
-    </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H228" s="6" t="s">
+        <v>997</v>
+      </c>
+      <c r="I228" s="6" t="s">
+        <v>862</v>
+      </c>
+      <c r="J228" s="6" t="s">
+        <v>790</v>
+      </c>
+      <c r="K228" s="6"/>
+      <c r="L228" s="6"/>
+      <c r="M228" s="6"/>
+    </row>
+    <row r="229" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A229" s="1" t="s">
         <v>330</v>
       </c>
@@ -8395,9 +11615,20 @@
       <c r="G229" s="6" t="s">
         <v>638</v>
       </c>
-      <c r="H229" s="6"/>
-    </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H229" s="6" t="s">
+        <v>981</v>
+      </c>
+      <c r="I229" s="6" t="s">
+        <v>847</v>
+      </c>
+      <c r="J229" s="6" t="s">
+        <v>909</v>
+      </c>
+      <c r="K229" s="6"/>
+      <c r="L229" s="6"/>
+      <c r="M229" s="6"/>
+    </row>
+    <row r="230" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A230" s="1" t="s">
         <v>330</v>
       </c>
@@ -8419,9 +11650,20 @@
       <c r="G230" s="6" t="s">
         <v>619</v>
       </c>
-      <c r="H230" s="6"/>
-    </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H230" s="6" t="s">
+        <v>901</v>
+      </c>
+      <c r="I230" s="6" t="s">
+        <v>888</v>
+      </c>
+      <c r="J230" s="6" t="s">
+        <v>888</v>
+      </c>
+      <c r="K230" s="6"/>
+      <c r="L230" s="6"/>
+      <c r="M230" s="6"/>
+    </row>
+    <row r="231" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A231" s="1" t="s">
         <v>330</v>
       </c>
@@ -8443,9 +11685,20 @@
       <c r="G231" s="6" t="s">
         <v>639</v>
       </c>
-      <c r="H231" s="6"/>
-    </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H231" s="6" t="s">
+        <v>914</v>
+      </c>
+      <c r="I231" s="6" t="s">
+        <v>821</v>
+      </c>
+      <c r="J231" s="6" t="s">
+        <v>826</v>
+      </c>
+      <c r="K231" s="6"/>
+      <c r="L231" s="6"/>
+      <c r="M231" s="6"/>
+    </row>
+    <row r="232" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A232" s="1" t="s">
         <v>330</v>
       </c>
@@ -8467,9 +11720,20 @@
       <c r="G232" s="6" t="s">
         <v>640</v>
       </c>
-      <c r="H232" s="6"/>
-    </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H232" s="6" t="s">
+        <v>998</v>
+      </c>
+      <c r="I232" s="6" t="s">
+        <v>809</v>
+      </c>
+      <c r="J232" s="6" t="s">
+        <v>982</v>
+      </c>
+      <c r="K232" s="6"/>
+      <c r="L232" s="6"/>
+      <c r="M232" s="6"/>
+    </row>
+    <row r="233" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A233" s="1" t="s">
         <v>330</v>
       </c>
@@ -8491,9 +11755,20 @@
       <c r="G233" s="6" t="s">
         <v>641</v>
       </c>
-      <c r="H233" s="6"/>
-    </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H233" s="6" t="s">
+        <v>999</v>
+      </c>
+      <c r="I233" s="6" t="s">
+        <v>871</v>
+      </c>
+      <c r="J233" s="6" t="s">
+        <v>802</v>
+      </c>
+      <c r="K233" s="6"/>
+      <c r="L233" s="6"/>
+      <c r="M233" s="6"/>
+    </row>
+    <row r="234" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A234" s="1" t="s">
         <v>330</v>
       </c>
@@ -8515,9 +11790,20 @@
       <c r="G234" s="6" t="s">
         <v>642</v>
       </c>
-      <c r="H234" s="6"/>
-    </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H234" s="6" t="s">
+        <v>1000</v>
+      </c>
+      <c r="I234" s="6" t="s">
+        <v>909</v>
+      </c>
+      <c r="J234" s="6" t="s">
+        <v>888</v>
+      </c>
+      <c r="K234" s="6"/>
+      <c r="L234" s="6"/>
+      <c r="M234" s="6"/>
+    </row>
+    <row r="235" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A235" s="1" t="s">
         <v>356</v>
       </c>
@@ -8539,9 +11825,20 @@
       <c r="G235" s="6" t="s">
         <v>643</v>
       </c>
-      <c r="H235" s="6"/>
-    </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H235" s="6" t="s">
+        <v>838</v>
+      </c>
+      <c r="I235" s="6" t="s">
+        <v>828</v>
+      </c>
+      <c r="J235" s="6" t="s">
+        <v>799</v>
+      </c>
+      <c r="K235" s="6"/>
+      <c r="L235" s="6"/>
+      <c r="M235" s="6"/>
+    </row>
+    <row r="236" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A236" s="1" t="s">
         <v>356</v>
       </c>
@@ -8563,9 +11860,20 @@
       <c r="G236" s="6" t="s">
         <v>644</v>
       </c>
-      <c r="H236" s="6"/>
-    </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H236" s="6" t="s">
+        <v>1001</v>
+      </c>
+      <c r="I236" s="6" t="s">
+        <v>855</v>
+      </c>
+      <c r="J236" s="6" t="s">
+        <v>808</v>
+      </c>
+      <c r="K236" s="6"/>
+      <c r="L236" s="6"/>
+      <c r="M236" s="6"/>
+    </row>
+    <row r="237" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A237" s="1" t="s">
         <v>356</v>
       </c>
@@ -8587,9 +11895,20 @@
       <c r="G237" s="6" t="s">
         <v>645</v>
       </c>
-      <c r="H237" s="6"/>
-    </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H237" s="6" t="s">
+        <v>1002</v>
+      </c>
+      <c r="I237" s="6" t="s">
+        <v>804</v>
+      </c>
+      <c r="J237" s="6" t="s">
+        <v>790</v>
+      </c>
+      <c r="K237" s="6"/>
+      <c r="L237" s="6"/>
+      <c r="M237" s="6"/>
+    </row>
+    <row r="238" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A238" s="1" t="s">
         <v>356</v>
       </c>
@@ -8611,9 +11930,20 @@
       <c r="G238" s="6" t="s">
         <v>646</v>
       </c>
-      <c r="H238" s="6"/>
-    </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H238" s="6" t="s">
+        <v>1003</v>
+      </c>
+      <c r="I238" s="6" t="s">
+        <v>867</v>
+      </c>
+      <c r="J238" s="6" t="s">
+        <v>808</v>
+      </c>
+      <c r="K238" s="6"/>
+      <c r="L238" s="6"/>
+      <c r="M238" s="6"/>
+    </row>
+    <row r="239" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A239" s="1" t="s">
         <v>356</v>
       </c>
@@ -8635,9 +11965,20 @@
       <c r="G239" s="6" t="s">
         <v>647</v>
       </c>
-      <c r="H239" s="6"/>
-    </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H239" s="6" t="s">
+        <v>1004</v>
+      </c>
+      <c r="I239" s="6" t="s">
+        <v>862</v>
+      </c>
+      <c r="J239" s="6" t="s">
+        <v>808</v>
+      </c>
+      <c r="K239" s="6"/>
+      <c r="L239" s="6"/>
+      <c r="M239" s="6"/>
+    </row>
+    <row r="240" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A240" s="1" t="s">
         <v>356</v>
       </c>
@@ -8659,9 +12000,20 @@
       <c r="G240" s="6" t="s">
         <v>648</v>
       </c>
-      <c r="H240" s="6"/>
-    </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H240" s="6" t="s">
+        <v>1005</v>
+      </c>
+      <c r="I240" s="6" t="s">
+        <v>793</v>
+      </c>
+      <c r="J240" s="6" t="s">
+        <v>808</v>
+      </c>
+      <c r="K240" s="6"/>
+      <c r="L240" s="6"/>
+      <c r="M240" s="6"/>
+    </row>
+    <row r="241" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A241" s="1" t="s">
         <v>356</v>
       </c>
@@ -8683,9 +12035,20 @@
       <c r="G241" s="6" t="s">
         <v>649</v>
       </c>
-      <c r="H241" s="6"/>
-    </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H241" s="6" t="s">
+        <v>1006</v>
+      </c>
+      <c r="I241" s="6" t="s">
+        <v>821</v>
+      </c>
+      <c r="J241" s="6" t="s">
+        <v>826</v>
+      </c>
+      <c r="K241" s="6"/>
+      <c r="L241" s="6"/>
+      <c r="M241" s="6"/>
+    </row>
+    <row r="242" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A242" s="1" t="s">
         <v>356</v>
       </c>
@@ -8707,9 +12070,20 @@
       <c r="G242" s="6" t="s">
         <v>650</v>
       </c>
-      <c r="H242" s="6"/>
-    </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H242" s="6" t="s">
+        <v>974</v>
+      </c>
+      <c r="I242" s="6" t="s">
+        <v>789</v>
+      </c>
+      <c r="J242" s="6" t="s">
+        <v>802</v>
+      </c>
+      <c r="K242" s="6"/>
+      <c r="L242" s="6"/>
+      <c r="M242" s="6"/>
+    </row>
+    <row r="243" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A243" s="1" t="s">
         <v>356</v>
       </c>
@@ -8729,9 +12103,20 @@
         <v>700</v>
       </c>
       <c r="G243" s="6"/>
-      <c r="H243" s="6"/>
-    </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H243" s="6" t="s">
+        <v>925</v>
+      </c>
+      <c r="I243" s="6" t="s">
+        <v>925</v>
+      </c>
+      <c r="J243" s="6" t="s">
+        <v>925</v>
+      </c>
+      <c r="K243" s="6"/>
+      <c r="L243" s="6"/>
+      <c r="M243" s="6"/>
+    </row>
+    <row r="244" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A244" s="1" t="s">
         <v>356</v>
       </c>
@@ -8751,9 +12136,20 @@
         <v>705</v>
       </c>
       <c r="G244" s="6"/>
-      <c r="H244" s="6"/>
-    </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H244" s="6" t="s">
+        <v>925</v>
+      </c>
+      <c r="I244" s="6" t="s">
+        <v>925</v>
+      </c>
+      <c r="J244" s="6" t="s">
+        <v>925</v>
+      </c>
+      <c r="K244" s="6"/>
+      <c r="L244" s="6"/>
+      <c r="M244" s="6"/>
+    </row>
+    <row r="245" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A245" s="1" t="s">
         <v>356</v>
       </c>
@@ -8775,9 +12171,20 @@
       <c r="G245" s="6" t="s">
         <v>651</v>
       </c>
-      <c r="H245" s="6"/>
-    </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H245" s="6" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I245" s="6" t="s">
+        <v>819</v>
+      </c>
+      <c r="J245" s="6" t="s">
+        <v>808</v>
+      </c>
+      <c r="K245" s="6"/>
+      <c r="L245" s="6"/>
+      <c r="M245" s="6"/>
+    </row>
+    <row r="246" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A246" s="1" t="s">
         <v>356</v>
       </c>
@@ -8799,9 +12206,20 @@
       <c r="G246" s="6" t="s">
         <v>652</v>
       </c>
-      <c r="H246" s="6"/>
-    </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H246" s="6" t="s">
+        <v>829</v>
+      </c>
+      <c r="I246" s="6" t="s">
+        <v>984</v>
+      </c>
+      <c r="J246" s="6" t="s">
+        <v>979</v>
+      </c>
+      <c r="K246" s="6"/>
+      <c r="L246" s="6"/>
+      <c r="M246" s="6"/>
+    </row>
+    <row r="247" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A247" s="1" t="s">
         <v>356</v>
       </c>
@@ -8823,9 +12241,20 @@
       <c r="G247" s="6" t="s">
         <v>653</v>
       </c>
-      <c r="H247" s="6"/>
-    </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H247" s="6" t="s">
+        <v>856</v>
+      </c>
+      <c r="I247" s="6" t="s">
+        <v>809</v>
+      </c>
+      <c r="J247" s="6" t="s">
+        <v>984</v>
+      </c>
+      <c r="K247" s="6"/>
+      <c r="L247" s="6"/>
+      <c r="M247" s="6"/>
+    </row>
+    <row r="248" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A248" s="1" t="s">
         <v>356</v>
       </c>
@@ -8847,9 +12276,20 @@
       <c r="G248" s="6" t="s">
         <v>654</v>
       </c>
-      <c r="H248" s="6"/>
-    </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H248" s="6" t="s">
+        <v>946</v>
+      </c>
+      <c r="I248" s="6" t="s">
+        <v>873</v>
+      </c>
+      <c r="J248" s="6" t="s">
+        <v>834</v>
+      </c>
+      <c r="K248" s="6"/>
+      <c r="L248" s="6"/>
+      <c r="M248" s="6"/>
+    </row>
+    <row r="249" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A249" s="1" t="s">
         <v>356</v>
       </c>
@@ -8871,9 +12311,20 @@
       <c r="G249" s="6" t="s">
         <v>655</v>
       </c>
-      <c r="H249" s="6"/>
-    </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H249" s="6" t="s">
+        <v>842</v>
+      </c>
+      <c r="I249" s="6" t="s">
+        <v>862</v>
+      </c>
+      <c r="J249" s="6" t="s">
+        <v>790</v>
+      </c>
+      <c r="K249" s="6"/>
+      <c r="L249" s="6"/>
+      <c r="M249" s="6"/>
+    </row>
+    <row r="250" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A250" s="1" t="s">
         <v>356</v>
       </c>
@@ -8893,9 +12344,20 @@
         <v>693</v>
       </c>
       <c r="G250" s="6"/>
-      <c r="H250" s="6"/>
-    </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H250" s="6" t="s">
+        <v>1008</v>
+      </c>
+      <c r="I250" s="6" t="s">
+        <v>915</v>
+      </c>
+      <c r="J250" s="6" t="s">
+        <v>841</v>
+      </c>
+      <c r="K250" s="6"/>
+      <c r="L250" s="6"/>
+      <c r="M250" s="6"/>
+    </row>
+    <row r="251" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A251" s="1" t="s">
         <v>356</v>
       </c>
@@ -8917,9 +12379,20 @@
       <c r="G251" s="6" t="s">
         <v>656</v>
       </c>
-      <c r="H251" s="6"/>
-    </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H251" s="6" t="s">
+        <v>1009</v>
+      </c>
+      <c r="I251" s="6" t="s">
+        <v>888</v>
+      </c>
+      <c r="J251" s="6" t="s">
+        <v>979</v>
+      </c>
+      <c r="K251" s="6"/>
+      <c r="L251" s="6"/>
+      <c r="M251" s="6"/>
+    </row>
+    <row r="252" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A252" s="1" t="s">
         <v>356</v>
       </c>
@@ -8941,9 +12414,20 @@
       <c r="G252" s="6" t="s">
         <v>657</v>
       </c>
-      <c r="H252" s="6"/>
-    </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H252" s="6" t="s">
+        <v>958</v>
+      </c>
+      <c r="I252" s="6" t="s">
+        <v>847</v>
+      </c>
+      <c r="J252" s="6" t="s">
+        <v>804</v>
+      </c>
+      <c r="K252" s="6"/>
+      <c r="L252" s="6"/>
+      <c r="M252" s="6"/>
+    </row>
+    <row r="253" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A253" s="1" t="s">
         <v>356</v>
       </c>
@@ -8963,9 +12447,20 @@
         <v>737</v>
       </c>
       <c r="G253" s="6"/>
-      <c r="H253" s="6"/>
-    </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H253" s="6" t="s">
+        <v>1010</v>
+      </c>
+      <c r="I253" s="6" t="s">
+        <v>847</v>
+      </c>
+      <c r="J253" s="6" t="s">
+        <v>984</v>
+      </c>
+      <c r="K253" s="6"/>
+      <c r="L253" s="6"/>
+      <c r="M253" s="6"/>
+    </row>
+    <row r="254" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A254" s="1" t="s">
         <v>356</v>
       </c>
@@ -8987,9 +12482,20 @@
       <c r="G254" s="6" t="s">
         <v>658</v>
       </c>
-      <c r="H254" s="6"/>
-    </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H254" s="6" t="s">
+        <v>1011</v>
+      </c>
+      <c r="I254" s="6" t="s">
+        <v>875</v>
+      </c>
+      <c r="J254" s="6" t="s">
+        <v>855</v>
+      </c>
+      <c r="K254" s="6"/>
+      <c r="L254" s="6"/>
+      <c r="M254" s="6"/>
+    </row>
+    <row r="255" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A255" s="1" t="s">
         <v>356</v>
       </c>
@@ -9011,9 +12517,20 @@
       <c r="G255" s="6" t="s">
         <v>659</v>
       </c>
-      <c r="H255" s="6"/>
-    </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H255" s="6" t="s">
+        <v>1012</v>
+      </c>
+      <c r="I255" s="6" t="s">
+        <v>884</v>
+      </c>
+      <c r="J255" s="6" t="s">
+        <v>918</v>
+      </c>
+      <c r="K255" s="6"/>
+      <c r="L255" s="6"/>
+      <c r="M255" s="6"/>
+    </row>
+    <row r="256" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A256" s="1" t="s">
         <v>356</v>
       </c>
@@ -9035,9 +12552,20 @@
       <c r="G256" s="6" t="s">
         <v>660</v>
       </c>
-      <c r="H256" s="6"/>
-    </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H256" s="6" t="s">
+        <v>963</v>
+      </c>
+      <c r="I256" s="6" t="s">
+        <v>870</v>
+      </c>
+      <c r="J256" s="6" t="s">
+        <v>799</v>
+      </c>
+      <c r="K256" s="6"/>
+      <c r="L256" s="6"/>
+      <c r="M256" s="6"/>
+    </row>
+    <row r="257" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A257" s="1" t="s">
         <v>356</v>
       </c>
@@ -9059,9 +12587,20 @@
       <c r="G257" s="6" t="s">
         <v>661</v>
       </c>
-      <c r="H257" s="6"/>
-    </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H257" s="6" t="s">
+        <v>941</v>
+      </c>
+      <c r="I257" s="6" t="s">
+        <v>954</v>
+      </c>
+      <c r="J257" s="6" t="s">
+        <v>851</v>
+      </c>
+      <c r="K257" s="6"/>
+      <c r="L257" s="6"/>
+      <c r="M257" s="6"/>
+    </row>
+    <row r="258" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A258" s="1" t="s">
         <v>356</v>
       </c>
@@ -9083,9 +12622,20 @@
       <c r="G258" s="6" t="s">
         <v>662</v>
       </c>
-      <c r="H258" s="6"/>
-    </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H258" s="6" t="s">
+        <v>837</v>
+      </c>
+      <c r="I258" s="6" t="s">
+        <v>871</v>
+      </c>
+      <c r="J258" s="6" t="s">
+        <v>808</v>
+      </c>
+      <c r="K258" s="6"/>
+      <c r="L258" s="6"/>
+      <c r="M258" s="6"/>
+    </row>
+    <row r="259" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A259" s="1" t="s">
         <v>356</v>
       </c>
@@ -9107,9 +12657,20 @@
       <c r="G259" s="6" t="s">
         <v>663</v>
       </c>
-      <c r="H259" s="6"/>
-    </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H259" s="6" t="s">
+        <v>966</v>
+      </c>
+      <c r="I259" s="6" t="s">
+        <v>994</v>
+      </c>
+      <c r="J259" s="6" t="s">
+        <v>873</v>
+      </c>
+      <c r="K259" s="6"/>
+      <c r="L259" s="6"/>
+      <c r="M259" s="6"/>
+    </row>
+    <row r="260" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A260" s="1" t="s">
         <v>356</v>
       </c>
@@ -9131,9 +12692,20 @@
       <c r="G260" s="6" t="s">
         <v>664</v>
       </c>
-      <c r="H260" s="6"/>
-    </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H260" s="6" t="s">
+        <v>813</v>
+      </c>
+      <c r="I260" s="6" t="s">
+        <v>982</v>
+      </c>
+      <c r="J260" s="6" t="s">
+        <v>950</v>
+      </c>
+      <c r="K260" s="6"/>
+      <c r="L260" s="6"/>
+      <c r="M260" s="6"/>
+    </row>
+    <row r="261" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A261" s="1" t="s">
         <v>356</v>
       </c>
@@ -9155,9 +12727,20 @@
       <c r="G261" s="6" t="s">
         <v>665</v>
       </c>
-      <c r="H261" s="6"/>
-    </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H261" s="6" t="s">
+        <v>1013</v>
+      </c>
+      <c r="I261" s="6" t="s">
+        <v>845</v>
+      </c>
+      <c r="J261" s="6" t="s">
+        <v>979</v>
+      </c>
+      <c r="K261" s="6"/>
+      <c r="L261" s="6"/>
+      <c r="M261" s="6"/>
+    </row>
+    <row r="262" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A262" s="1" t="s">
         <v>356</v>
       </c>
@@ -9179,9 +12762,20 @@
       <c r="G262" s="6" t="s">
         <v>666</v>
       </c>
-      <c r="H262" s="6"/>
-    </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H262" s="6" t="s">
+        <v>947</v>
+      </c>
+      <c r="I262" s="6" t="s">
+        <v>918</v>
+      </c>
+      <c r="J262" s="6" t="s">
+        <v>918</v>
+      </c>
+      <c r="K262" s="6"/>
+      <c r="L262" s="6"/>
+      <c r="M262" s="6"/>
+    </row>
+    <row r="263" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A263" s="1" t="s">
         <v>387</v>
       </c>
@@ -9203,9 +12797,20 @@
       <c r="G263" s="6" t="s">
         <v>667</v>
       </c>
-      <c r="H263" s="6"/>
-    </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H263" s="6" t="s">
+        <v>1014</v>
+      </c>
+      <c r="I263" s="6" t="s">
+        <v>867</v>
+      </c>
+      <c r="J263" s="6" t="s">
+        <v>808</v>
+      </c>
+      <c r="K263" s="6"/>
+      <c r="L263" s="6"/>
+      <c r="M263" s="6"/>
+    </row>
+    <row r="264" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A264" s="1" t="s">
         <v>387</v>
       </c>
@@ -9227,9 +12832,20 @@
       <c r="G264" s="6" t="s">
         <v>674</v>
       </c>
-      <c r="H264" s="6"/>
-    </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H264" s="6" t="s">
+        <v>925</v>
+      </c>
+      <c r="I264" s="6" t="s">
+        <v>925</v>
+      </c>
+      <c r="J264" s="6" t="s">
+        <v>925</v>
+      </c>
+      <c r="K264" s="6"/>
+      <c r="L264" s="6"/>
+      <c r="M264" s="6"/>
+    </row>
+    <row r="265" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A265" s="1" t="s">
         <v>387</v>
       </c>
@@ -9249,9 +12865,20 @@
         <v>748</v>
       </c>
       <c r="G265" s="6"/>
-      <c r="H265" s="6"/>
-    </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H265" s="6" t="s">
+        <v>925</v>
+      </c>
+      <c r="I265" s="6" t="s">
+        <v>925</v>
+      </c>
+      <c r="J265" s="6" t="s">
+        <v>925</v>
+      </c>
+      <c r="K265" s="6"/>
+      <c r="L265" s="6"/>
+      <c r="M265" s="6"/>
+    </row>
+    <row r="266" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A266" s="1" t="s">
         <v>387</v>
       </c>
@@ -9273,9 +12900,20 @@
       <c r="G266" s="6" t="s">
         <v>668</v>
       </c>
-      <c r="H266" s="6"/>
-    </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H266" s="6" t="s">
+        <v>1013</v>
+      </c>
+      <c r="I266" s="6" t="s">
+        <v>789</v>
+      </c>
+      <c r="J266" s="6" t="s">
+        <v>790</v>
+      </c>
+      <c r="K266" s="6"/>
+      <c r="L266" s="6"/>
+      <c r="M266" s="6"/>
+    </row>
+    <row r="267" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A267" s="1" t="s">
         <v>387</v>
       </c>
@@ -9295,9 +12933,20 @@
         <v>703</v>
       </c>
       <c r="G267" s="6"/>
-      <c r="H267" s="6"/>
-    </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H267" s="6" t="s">
+        <v>925</v>
+      </c>
+      <c r="I267" s="6" t="s">
+        <v>925</v>
+      </c>
+      <c r="J267" s="6" t="s">
+        <v>925</v>
+      </c>
+      <c r="K267" s="6"/>
+      <c r="L267" s="6"/>
+      <c r="M267" s="6"/>
+    </row>
+    <row r="268" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A268" s="1" t="s">
         <v>387</v>
       </c>
@@ -9319,9 +12968,20 @@
       <c r="G268" s="6" t="s">
         <v>669</v>
       </c>
-      <c r="H268" s="6"/>
-    </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H268" s="6" t="s">
+        <v>1015</v>
+      </c>
+      <c r="I268" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="J268" s="6" t="s">
+        <v>826</v>
+      </c>
+      <c r="K268" s="6"/>
+      <c r="L268" s="6"/>
+      <c r="M268" s="6"/>
+    </row>
+    <row r="269" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A269" s="1" t="s">
         <v>387</v>
       </c>
@@ -9343,9 +13003,20 @@
       <c r="G269" s="6" t="s">
         <v>672</v>
       </c>
-      <c r="H269" s="6"/>
-    </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H269" s="6" t="s">
+        <v>1016</v>
+      </c>
+      <c r="I269" s="6" t="s">
+        <v>884</v>
+      </c>
+      <c r="J269" s="6" t="s">
+        <v>805</v>
+      </c>
+      <c r="K269" s="6"/>
+      <c r="L269" s="6"/>
+      <c r="M269" s="6"/>
+    </row>
+    <row r="270" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A270" s="1" t="s">
         <v>387</v>
       </c>
@@ -9367,9 +13038,20 @@
       <c r="G270" s="6" t="s">
         <v>670</v>
       </c>
-      <c r="H270" s="6"/>
-    </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H270" s="6" t="s">
+        <v>1010</v>
+      </c>
+      <c r="I270" s="6" t="s">
+        <v>789</v>
+      </c>
+      <c r="J270" s="6" t="s">
+        <v>817</v>
+      </c>
+      <c r="K270" s="6"/>
+      <c r="L270" s="6"/>
+      <c r="M270" s="6"/>
+    </row>
+    <row r="271" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A271" s="1" t="s">
         <v>387</v>
       </c>
@@ -9391,9 +13073,20 @@
       <c r="G271" s="6" t="s">
         <v>671</v>
       </c>
-      <c r="H271" s="6"/>
-    </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H271" s="6" t="s">
+        <v>749</v>
+      </c>
+      <c r="I271" s="6" t="s">
+        <v>873</v>
+      </c>
+      <c r="J271" s="6" t="s">
+        <v>799</v>
+      </c>
+      <c r="K271" s="6"/>
+      <c r="L271" s="6"/>
+      <c r="M271" s="6"/>
+    </row>
+    <row r="272" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A272" s="1" t="s">
         <v>387</v>
       </c>
@@ -9415,9 +13108,20 @@
       <c r="G272" s="6" t="s">
         <v>672</v>
       </c>
-      <c r="H272" s="6"/>
-    </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H272" s="6" t="s">
+        <v>776</v>
+      </c>
+      <c r="I272" s="6" t="s">
+        <v>845</v>
+      </c>
+      <c r="J272" s="6" t="s">
+        <v>805</v>
+      </c>
+      <c r="K272" s="6"/>
+      <c r="L272" s="6"/>
+      <c r="M272" s="6"/>
+    </row>
+    <row r="273" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A273" s="1" t="s">
         <v>387</v>
       </c>
@@ -9439,9 +13143,20 @@
       <c r="G273" s="6" t="s">
         <v>673</v>
       </c>
-      <c r="H273" s="6"/>
-    </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H273" s="6" t="s">
+        <v>1017</v>
+      </c>
+      <c r="I273" s="6" t="s">
+        <v>789</v>
+      </c>
+      <c r="J273" s="6" t="s">
+        <v>790</v>
+      </c>
+      <c r="K273" s="6"/>
+      <c r="L273" s="6"/>
+      <c r="M273" s="6"/>
+    </row>
+    <row r="274" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A274" s="1" t="s">
         <v>387</v>
       </c>
@@ -9463,9 +13178,20 @@
       <c r="G274" s="6" t="s">
         <v>674</v>
       </c>
-      <c r="H274" s="6"/>
-    </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H274" s="6" t="s">
+        <v>893</v>
+      </c>
+      <c r="I274" s="6" t="s">
+        <v>807</v>
+      </c>
+      <c r="J274" s="6" t="s">
+        <v>790</v>
+      </c>
+      <c r="K274" s="6"/>
+      <c r="L274" s="6"/>
+      <c r="M274" s="6"/>
+    </row>
+    <row r="275" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A275" s="1" t="s">
         <v>387</v>
       </c>
@@ -9487,9 +13213,20 @@
       <c r="G275" s="6" t="s">
         <v>675</v>
       </c>
-      <c r="H275" s="6"/>
-    </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H275" s="6" t="s">
+        <v>772</v>
+      </c>
+      <c r="I275" s="6" t="s">
+        <v>950</v>
+      </c>
+      <c r="J275" s="6" t="s">
+        <v>970</v>
+      </c>
+      <c r="K275" s="6"/>
+      <c r="L275" s="6"/>
+      <c r="M275" s="6"/>
+    </row>
+    <row r="276" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A276" s="1" t="s">
         <v>387</v>
       </c>
@@ -9511,9 +13248,20 @@
       <c r="G276" s="6" t="s">
         <v>676</v>
       </c>
-      <c r="H276" s="6"/>
-    </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H276" s="6" t="s">
+        <v>1018</v>
+      </c>
+      <c r="I276" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="J276" s="6" t="s">
+        <v>915</v>
+      </c>
+      <c r="K276" s="6"/>
+      <c r="L276" s="6"/>
+      <c r="M276" s="6"/>
+    </row>
+    <row r="277" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A277" s="1" t="s">
         <v>387</v>
       </c>
@@ -9535,9 +13283,20 @@
       <c r="G277" s="6" t="s">
         <v>677</v>
       </c>
-      <c r="H277" s="6"/>
-    </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H277" s="6" t="s">
+        <v>897</v>
+      </c>
+      <c r="I277" s="6" t="s">
+        <v>816</v>
+      </c>
+      <c r="J277" s="6" t="s">
+        <v>954</v>
+      </c>
+      <c r="K277" s="6"/>
+      <c r="L277" s="6"/>
+      <c r="M277" s="6"/>
+    </row>
+    <row r="278" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A278" s="1" t="s">
         <v>387</v>
       </c>
@@ -9559,9 +13318,20 @@
       <c r="G278" s="6" t="s">
         <v>678</v>
       </c>
-      <c r="H278" s="6"/>
-    </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H278" s="6" t="s">
+        <v>903</v>
+      </c>
+      <c r="I278" s="6" t="s">
+        <v>954</v>
+      </c>
+      <c r="J278" s="6" t="s">
+        <v>802</v>
+      </c>
+      <c r="K278" s="6"/>
+      <c r="L278" s="6"/>
+      <c r="M278" s="6"/>
+    </row>
+    <row r="279" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A279" s="1" t="s">
         <v>387</v>
       </c>
@@ -9583,9 +13353,20 @@
       <c r="G279" s="6" t="s">
         <v>679</v>
       </c>
-      <c r="H279" s="6"/>
-    </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H279" s="6" t="s">
+        <v>874</v>
+      </c>
+      <c r="I279" s="6" t="s">
+        <v>875</v>
+      </c>
+      <c r="J279" s="6" t="s">
+        <v>979</v>
+      </c>
+      <c r="K279" s="6"/>
+      <c r="L279" s="6"/>
+      <c r="M279" s="6"/>
+    </row>
+    <row r="280" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A280" s="1" t="s">
         <v>387</v>
       </c>
@@ -9607,9 +13388,20 @@
       <c r="G280" s="6" t="s">
         <v>680</v>
       </c>
-      <c r="H280" s="6"/>
-    </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H280" s="6" t="s">
+        <v>1019</v>
+      </c>
+      <c r="I280" s="6" t="s">
+        <v>882</v>
+      </c>
+      <c r="J280" s="6" t="s">
+        <v>826</v>
+      </c>
+      <c r="K280" s="6"/>
+      <c r="L280" s="6"/>
+      <c r="M280" s="6"/>
+    </row>
+    <row r="281" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A281" s="1" t="s">
         <v>387</v>
       </c>
@@ -9631,9 +13423,20 @@
       <c r="G281" s="6" t="s">
         <v>681</v>
       </c>
-      <c r="H281" s="6"/>
-    </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H281" s="6" t="s">
+        <v>943</v>
+      </c>
+      <c r="I281" s="6" t="s">
+        <v>816</v>
+      </c>
+      <c r="J281" s="6" t="s">
+        <v>849</v>
+      </c>
+      <c r="K281" s="6"/>
+      <c r="L281" s="6"/>
+      <c r="M281" s="6"/>
+    </row>
+    <row r="282" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A282" s="1" t="s">
         <v>387</v>
       </c>
@@ -9655,9 +13458,20 @@
       <c r="G282" s="6" t="s">
         <v>682</v>
       </c>
-      <c r="H282" s="6"/>
-    </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H282" s="6" t="s">
+        <v>942</v>
+      </c>
+      <c r="I282" s="6" t="s">
+        <v>918</v>
+      </c>
+      <c r="J282" s="6" t="s">
+        <v>970</v>
+      </c>
+      <c r="K282" s="6"/>
+      <c r="L282" s="6"/>
+      <c r="M282" s="6"/>
+    </row>
+    <row r="283" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A283" s="1" t="s">
         <v>387</v>
       </c>
@@ -9679,9 +13493,20 @@
       <c r="G283" s="6" t="s">
         <v>683</v>
       </c>
-      <c r="H283" s="6"/>
-    </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H283" s="6" t="s">
+        <v>769</v>
+      </c>
+      <c r="I283" s="6" t="s">
+        <v>890</v>
+      </c>
+      <c r="J283" s="6" t="s">
+        <v>799</v>
+      </c>
+      <c r="K283" s="6"/>
+      <c r="L283" s="6"/>
+      <c r="M283" s="6"/>
+    </row>
+    <row r="284" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A284" s="1" t="s">
         <v>387</v>
       </c>
@@ -9703,9 +13528,20 @@
       <c r="G284" s="6" t="s">
         <v>684</v>
       </c>
-      <c r="H284" s="6"/>
-    </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H284" s="6" t="s">
+        <v>885</v>
+      </c>
+      <c r="I284" s="6" t="s">
+        <v>849</v>
+      </c>
+      <c r="J284" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="K284" s="6"/>
+      <c r="L284" s="6"/>
+      <c r="M284" s="6"/>
+    </row>
+    <row r="285" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A285" s="1" t="s">
         <v>410</v>
       </c>
@@ -9727,9 +13563,20 @@
       <c r="G285" s="6" t="s">
         <v>685</v>
       </c>
-      <c r="H285" s="6"/>
-    </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H285" s="6" t="s">
+        <v>1020</v>
+      </c>
+      <c r="I285" s="6" t="s">
+        <v>801</v>
+      </c>
+      <c r="J285" s="6" t="s">
+        <v>812</v>
+      </c>
+      <c r="K285" s="6"/>
+      <c r="L285" s="6"/>
+      <c r="M285" s="6"/>
+    </row>
+    <row r="286" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A286" s="1" t="s">
         <v>410</v>
       </c>
@@ -9751,9 +13598,20 @@
       <c r="G286" s="6" t="s">
         <v>686</v>
       </c>
-      <c r="H286" s="6"/>
-    </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H286" s="6" t="s">
+        <v>1020</v>
+      </c>
+      <c r="I286" s="6" t="s">
+        <v>865</v>
+      </c>
+      <c r="J286" s="6" t="s">
+        <v>812</v>
+      </c>
+      <c r="K286" s="6"/>
+      <c r="L286" s="6"/>
+      <c r="M286" s="6"/>
+    </row>
+    <row r="287" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A287" s="1" t="s">
         <v>410</v>
       </c>
@@ -9775,25 +13633,48 @@
       <c r="G287" s="6" t="s">
         <v>687</v>
       </c>
-      <c r="H287" s="6"/>
-    </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H287" s="6" t="s">
+        <v>1021</v>
+      </c>
+      <c r="I287" s="6" t="s">
+        <v>961</v>
+      </c>
+      <c r="J287" s="6" t="s">
+        <v>841</v>
+      </c>
+      <c r="K287" s="6"/>
+      <c r="L287" s="6"/>
+      <c r="M287" s="6"/>
+    </row>
+    <row r="288" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A288" s="1"/>
       <c r="B288" s="1"/>
       <c r="C288" s="3"/>
       <c r="D288" s="3"/>
       <c r="E288" s="6"/>
       <c r="F288" s="6"/>
-    </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H288" s="6"/>
+      <c r="I288" s="6"/>
+      <c r="J288" s="6"/>
+      <c r="K288" s="6"/>
+      <c r="L288" s="6"/>
+      <c r="M288" s="6"/>
+    </row>
+    <row r="289" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A289" s="1"/>
       <c r="B289" s="1"/>
       <c r="C289" s="3"/>
       <c r="D289" s="3"/>
       <c r="E289" s="6"/>
       <c r="F289" s="6"/>
-    </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H289" s="6"/>
+      <c r="I289" s="6"/>
+      <c r="J289" s="6"/>
+      <c r="K289" s="6"/>
+      <c r="L289" s="6"/>
+      <c r="M289" s="6"/>
+    </row>
+    <row r="290" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A290" s="1"/>
       <c r="B290" s="1"/>
       <c r="C290" s="3"/>
@@ -9802,44 +13683,93 @@
       <c r="F290" s="6"/>
       <c r="G290" s="6"/>
       <c r="H290" s="6"/>
-    </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A291" s="8"/>
-      <c r="B291" s="9"/>
-      <c r="C291" s="9"/>
-      <c r="D291" s="9"/>
-      <c r="E291" s="9"/>
-      <c r="F291" s="9"/>
-    </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A292" s="10"/>
-      <c r="B292" s="11"/>
-      <c r="C292" s="11"/>
-      <c r="D292" s="11"/>
-      <c r="E292" s="11"/>
-      <c r="F292" s="16" t="s">
+      <c r="I290" s="6"/>
+      <c r="J290" s="6"/>
+      <c r="K290" s="6"/>
+      <c r="L290" s="6"/>
+      <c r="M290" s="6"/>
+    </row>
+    <row r="291" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A291" s="7"/>
+      <c r="B291" s="8"/>
+      <c r="C291" s="8"/>
+      <c r="D291" s="8"/>
+      <c r="E291" s="8"/>
+      <c r="F291" s="8"/>
+      <c r="H291" s="6"/>
+      <c r="I291" s="6"/>
+      <c r="J291" s="6"/>
+      <c r="K291" s="6"/>
+      <c r="L291" s="6"/>
+      <c r="M291" s="6"/>
+    </row>
+    <row r="292" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A292" s="9"/>
+      <c r="B292" s="10"/>
+      <c r="C292" s="10"/>
+      <c r="D292" s="10"/>
+      <c r="E292" s="10"/>
+      <c r="F292" s="15" t="s">
         <v>786</v>
       </c>
-    </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A293" s="10"/>
-      <c r="B293" s="11"/>
-      <c r="C293" s="11"/>
-      <c r="D293" s="11"/>
-      <c r="E293" s="11"/>
-      <c r="F293" s="11"/>
-    </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A294" s="15"/>
-      <c r="B294" s="14"/>
-      <c r="C294" s="12"/>
-      <c r="D294" s="12"/>
-      <c r="E294" s="13"/>
-      <c r="F294" s="13"/>
-    </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="G295" s="7"/>
-      <c r="H295" s="7"/>
+      <c r="H292" s="6"/>
+      <c r="I292" s="6"/>
+      <c r="J292" s="6"/>
+      <c r="K292" s="6"/>
+      <c r="L292" s="6"/>
+      <c r="M292" s="6"/>
+    </row>
+    <row r="293" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A293" s="9"/>
+      <c r="B293" s="10"/>
+      <c r="C293" s="10"/>
+      <c r="D293" s="10"/>
+      <c r="E293" s="10"/>
+      <c r="F293" s="10"/>
+      <c r="H293" s="6"/>
+      <c r="I293" s="6"/>
+      <c r="J293" s="6"/>
+      <c r="K293" s="6"/>
+      <c r="L293" s="6"/>
+      <c r="M293" s="6"/>
+    </row>
+    <row r="294" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A294" s="14"/>
+      <c r="B294" s="13"/>
+      <c r="C294" s="11"/>
+      <c r="D294" s="11"/>
+      <c r="E294" s="12"/>
+      <c r="F294" s="12"/>
+      <c r="H294" s="6"/>
+      <c r="I294" s="6"/>
+      <c r="J294" s="6"/>
+      <c r="K294" s="6"/>
+      <c r="L294" s="6"/>
+      <c r="M294" s="6"/>
+    </row>
+    <row r="295" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="H295" s="6"/>
+      <c r="I295" s="6"/>
+      <c r="J295" s="6"/>
+      <c r="K295" s="6"/>
+      <c r="L295" s="6"/>
+      <c r="M295" s="6"/>
+    </row>
+    <row r="296" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="H296" s="6"/>
+      <c r="I296" s="6"/>
+      <c r="J296" s="6"/>
+      <c r="K296" s="6"/>
+      <c r="L296" s="6"/>
+      <c r="M296" s="6"/>
+    </row>
+    <row r="297" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="H297" s="6"/>
+      <c r="I297" s="6"/>
+      <c r="J297" s="6"/>
+      <c r="K297" s="6"/>
+      <c r="L297" s="6"/>
+      <c r="M297" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
